--- a/chalal.xlsx
+++ b/chalal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\master\siad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="45">
   <si>
     <t>jasper</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Paramètres de validation</t>
+  </si>
+  <si>
+    <t>valeur</t>
+  </si>
+  <si>
+    <t>niveau de préorité</t>
   </si>
 </sst>
 </file>
@@ -584,29 +590,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -681,6 +669,9 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,7 +681,205 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -702,13 +891,19 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,193 +912,7 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -911,7 +920,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -933,57 +942,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1414,10 +1372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,1304 +1400,1187 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="113"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="75"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="129" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="14">
+        <v>7</v>
+      </c>
+      <c r="D4" s="15">
+        <v>5</v>
+      </c>
+      <c r="E4" s="16">
+        <v>3</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18">
+        <v>3</v>
+      </c>
+      <c r="H4" s="19">
+        <v>5</v>
+      </c>
+      <c r="I4" s="20">
+        <v>7</v>
+      </c>
+      <c r="J4" s="60"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="65">
+        <v>1</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="G21" s="66">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="17">
+        <v>5</v>
+      </c>
+      <c r="D22" s="65">
+        <v>1</v>
+      </c>
+      <c r="E22" s="17">
+        <v>3</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1</v>
+      </c>
+      <c r="G22" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="17">
+        <v>3</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E23" s="65">
+        <v>1</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="G23" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="67">
         <v>7</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D24" s="67">
+        <v>1</v>
+      </c>
+      <c r="E24" s="67">
+        <v>3</v>
+      </c>
+      <c r="F24" s="65">
+        <v>1</v>
+      </c>
+      <c r="G24" s="75">
         <v>5</v>
       </c>
-      <c r="E4" s="22">
-        <v>3</v>
-      </c>
-      <c r="F4" s="23">
-        <v>1</v>
-      </c>
-      <c r="G4" s="24">
-        <v>3</v>
-      </c>
-      <c r="H4" s="25">
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="67">
         <v>5</v>
       </c>
-      <c r="I4" s="26">
-        <v>7</v>
-      </c>
-      <c r="J4" s="77" t="s">
+      <c r="D25" s="67">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E25" s="67">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F25" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="25">
+        <f>SUM(C21:C25)</f>
+        <v>21</v>
+      </c>
+      <c r="D26" s="25">
+        <f>SUM(D21:D25)</f>
+        <v>2.8665999999999996</v>
+      </c>
+      <c r="E26" s="25">
+        <f>SUM(E21:E25)</f>
+        <v>7.6665999999999999</v>
+      </c>
+      <c r="F26" s="25">
+        <f>SUM(F21:F25)</f>
+        <v>2.6761600000000003</v>
+      </c>
+      <c r="G26" s="70">
+        <f>SUM(G21:G25)</f>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="113"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="50" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="E32" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="20">
-        <v>7</v>
-      </c>
-      <c r="D5" s="21">
-        <v>5</v>
-      </c>
-      <c r="E5" s="22">
-        <v>3</v>
-      </c>
-      <c r="F5" s="23">
-        <v>1</v>
-      </c>
-      <c r="G5" s="24">
-        <v>3</v>
-      </c>
-      <c r="H5" s="25">
-        <v>5</v>
-      </c>
-      <c r="I5" s="26">
-        <v>7</v>
-      </c>
-      <c r="J5" s="77" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="20">
-        <v>7</v>
-      </c>
-      <c r="D6" s="21">
-        <v>5</v>
-      </c>
-      <c r="E6" s="22">
-        <v>3</v>
-      </c>
-      <c r="F6" s="23">
-        <v>1</v>
-      </c>
-      <c r="G6" s="24">
-        <v>3</v>
-      </c>
-      <c r="H6" s="25">
-        <v>5</v>
-      </c>
-      <c r="I6" s="26">
-        <v>7</v>
-      </c>
-      <c r="J6" s="77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="20">
-        <v>7</v>
-      </c>
-      <c r="D7" s="21">
-        <v>5</v>
-      </c>
-      <c r="E7" s="22">
-        <v>3</v>
-      </c>
-      <c r="F7" s="23">
-        <v>1</v>
-      </c>
-      <c r="G7" s="24">
-        <v>3</v>
-      </c>
-      <c r="H7" s="25">
-        <v>5</v>
-      </c>
-      <c r="I7" s="26">
-        <v>7</v>
-      </c>
-      <c r="J7" s="77" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="20">
-        <v>7</v>
-      </c>
-      <c r="D8" s="21">
-        <v>5</v>
-      </c>
-      <c r="E8" s="22">
-        <v>3</v>
-      </c>
-      <c r="F8" s="23">
-        <v>1</v>
-      </c>
-      <c r="G8" s="24">
-        <v>3</v>
-      </c>
-      <c r="H8" s="25">
-        <v>5</v>
-      </c>
-      <c r="I8" s="26">
-        <v>7</v>
-      </c>
-      <c r="J8" s="77" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="20">
-        <v>7</v>
-      </c>
-      <c r="D9" s="21">
-        <v>5</v>
-      </c>
-      <c r="E9" s="22">
-        <v>3</v>
-      </c>
-      <c r="F9" s="23">
-        <v>1</v>
-      </c>
-      <c r="G9" s="24">
-        <v>3</v>
-      </c>
-      <c r="H9" s="25">
-        <v>5</v>
-      </c>
-      <c r="I9" s="26">
-        <v>7</v>
-      </c>
-      <c r="J9" s="77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="20">
-        <v>7</v>
-      </c>
-      <c r="D10" s="21">
-        <v>5</v>
-      </c>
-      <c r="E10" s="22">
-        <v>3</v>
-      </c>
-      <c r="F10" s="23">
-        <v>1</v>
-      </c>
-      <c r="G10" s="24">
-        <v>3</v>
-      </c>
-      <c r="H10" s="25">
-        <v>5</v>
-      </c>
-      <c r="I10" s="26">
-        <v>7</v>
-      </c>
-      <c r="J10" s="77" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="20">
-        <v>7</v>
-      </c>
-      <c r="D11" s="21">
-        <v>5</v>
-      </c>
-      <c r="E11" s="22">
-        <v>3</v>
-      </c>
-      <c r="F11" s="23">
-        <v>1</v>
-      </c>
-      <c r="G11" s="24">
-        <v>3</v>
-      </c>
-      <c r="H11" s="25">
-        <v>5</v>
-      </c>
-      <c r="I11" s="26">
-        <v>7</v>
-      </c>
-      <c r="J11" s="77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="20">
-        <v>7</v>
-      </c>
-      <c r="D12" s="21">
-        <v>5</v>
-      </c>
-      <c r="E12" s="22">
-        <v>3</v>
-      </c>
-      <c r="F12" s="23">
-        <v>1</v>
-      </c>
-      <c r="G12" s="24">
-        <v>3</v>
-      </c>
-      <c r="H12" s="25">
-        <v>5</v>
-      </c>
-      <c r="I12" s="26">
-        <v>7</v>
-      </c>
-      <c r="J12" s="77" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="29">
-        <v>7</v>
-      </c>
-      <c r="D13" s="30">
-        <v>5</v>
-      </c>
-      <c r="E13" s="31">
-        <v>3</v>
-      </c>
-      <c r="F13" s="32">
-        <v>1</v>
-      </c>
-      <c r="G13" s="33">
-        <v>3</v>
-      </c>
-      <c r="H13" s="34">
-        <v>5</v>
-      </c>
-      <c r="I13" s="35">
-        <v>7</v>
-      </c>
-      <c r="J13" s="79" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="77" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="80">
-        <v>1</v>
-      </c>
-      <c r="D20" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="23">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="F20" s="23">
-        <v>0.14285999999999999</v>
-      </c>
-      <c r="G20" s="81">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="23">
-        <v>5</v>
-      </c>
-      <c r="D21" s="80">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23">
-        <v>3</v>
-      </c>
-      <c r="F21" s="23">
-        <v>1</v>
-      </c>
-      <c r="G21" s="81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="23">
-        <v>3</v>
-      </c>
-      <c r="D22" s="23">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="E22" s="80">
-        <v>1</v>
-      </c>
-      <c r="F22" s="23">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="G22" s="81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="82">
-        <v>7</v>
-      </c>
-      <c r="D23" s="82">
-        <v>1</v>
-      </c>
-      <c r="E23" s="82">
-        <v>3</v>
-      </c>
-      <c r="F23" s="80">
-        <v>1</v>
-      </c>
-      <c r="G23" s="90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="82">
-        <v>5</v>
-      </c>
-      <c r="D24" s="82">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="E24" s="82">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="F24" s="82">
-        <v>0.2</v>
-      </c>
-      <c r="G24" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="31">
-        <f>SUM(C20:C24)</f>
-        <v>21</v>
-      </c>
-      <c r="D25" s="31">
-        <f>SUM(D20:D24)</f>
-        <v>2.8665999999999996</v>
-      </c>
-      <c r="E25" s="31">
-        <f>SUM(E20:E24)</f>
-        <v>7.6665999999999999</v>
-      </c>
-      <c r="F25" s="31">
-        <f>SUM(F20:F24)</f>
-        <v>2.6761600000000003</v>
-      </c>
-      <c r="G25" s="85">
-        <f>SUM(G20:G24)</f>
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="77" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="23">
-        <f>C20/C$25</f>
+      <c r="C33" s="17">
+        <f t="shared" ref="C33:G37" si="0">C21/C$26</f>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="D32" s="23">
-        <f>D20/D$25</f>
-        <v>6.976906439684645E-2</v>
-      </c>
-      <c r="E32" s="23">
-        <f>E20/E$25</f>
-        <v>4.3474291080792003E-2</v>
-      </c>
-      <c r="F32" s="23">
-        <f>F20/F$25</f>
-        <v>5.3382458447925371E-2</v>
-      </c>
-      <c r="G32" s="81">
-        <f>G20/G$25</f>
-        <v>1.6393442622950821E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="23">
-        <f>C21/C$25</f>
-        <v>0.23809523809523808</v>
-      </c>
-      <c r="D33" s="23">
-        <f>D21/D$25</f>
-        <v>0.34884532198423224</v>
-      </c>
-      <c r="E33" s="23">
-        <f>E21/E$25</f>
-        <v>0.39130775050217831</v>
-      </c>
-      <c r="F33" s="23">
-        <f>F21/F$25</f>
-        <v>0.37366973574076284</v>
-      </c>
-      <c r="G33" s="81">
-        <f>G21/G$25</f>
-        <v>0.24590163934426232</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="23">
-        <f>C22/C$25</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="D34" s="23">
-        <f>D22/D$25</f>
-        <v>0.1162701458173446</v>
-      </c>
-      <c r="E34" s="23">
-        <f>E22/E$25</f>
-        <v>0.13043591683405942</v>
-      </c>
-      <c r="F34" s="23">
-        <f>F22/F$25</f>
-        <v>0.12454412292239625</v>
-      </c>
-      <c r="G34" s="81">
-        <f>G22/G$25</f>
-        <v>0.24590163934426232</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="23">
-        <f>C23/C$25</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D35" s="23">
-        <f>D23/D$25</f>
-        <v>0.34884532198423224</v>
-      </c>
-      <c r="E35" s="23">
-        <f>E23/E$25</f>
-        <v>0.39130775050217831</v>
-      </c>
-      <c r="F35" s="23">
-        <f>F23/F$25</f>
-        <v>0.37366973574076284</v>
-      </c>
-      <c r="G35" s="81">
-        <f>G23/G$25</f>
-        <v>0.4098360655737705</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="23">
-        <f>C24/C$25</f>
-        <v>0.23809523809523808</v>
-      </c>
-      <c r="D36" s="23">
-        <f>D24/D$25</f>
-        <v>0.1162701458173446</v>
-      </c>
-      <c r="E36" s="23">
-        <f>E24/E$25</f>
-        <v>4.3474291080792003E-2</v>
-      </c>
-      <c r="F36" s="23">
-        <f>F24/F$25</f>
-        <v>7.4733947148152569E-2</v>
-      </c>
-      <c r="G36" s="81">
-        <f>G24/G$25</f>
-        <v>8.1967213114754106E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="31">
-        <f>SUM(C32:C36)</f>
-        <v>1</v>
-      </c>
-      <c r="D37" s="31">
-        <f>SUM(D32:D36)</f>
-        <v>1</v>
-      </c>
-      <c r="E37" s="31">
-        <f>SUM(E32:E36)</f>
-        <v>1</v>
-      </c>
-      <c r="F37" s="31">
-        <f>SUM(F32:F36)</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="G37" s="85">
-        <f>SUM(G32:G36)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="112"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="126"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="94" t="str">
-        <f t="shared" ref="E43:J48" si="0">B31</f>
-        <v>Critères</v>
-      </c>
-      <c r="F43" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v>Communauté</v>
-      </c>
-      <c r="G43" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v>Documentation</v>
-      </c>
-      <c r="H43" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v>Niveau d'accessibilité</v>
-      </c>
-      <c r="I43" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v>Sécurité</v>
-      </c>
-      <c r="J43" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v>Taux d’activité</v>
-      </c>
-      <c r="K43" s="127" t="s">
-        <v>36</v>
-      </c>
-      <c r="L43" s="121" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="87">
-        <f>SUM(C32:F32)/4</f>
-        <v>5.3561215386152855E-2</v>
-      </c>
-      <c r="E44" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Communauté </v>
-      </c>
-      <c r="F44" s="23">
-        <f t="shared" si="0"/>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="G44" s="23">
+      <c r="D33" s="17">
         <f t="shared" si="0"/>
         <v>6.976906439684645E-2</v>
       </c>
-      <c r="H44" s="23">
+      <c r="E33" s="17">
         <f t="shared" si="0"/>
         <v>4.3474291080792003E-2</v>
       </c>
-      <c r="I44" s="23">
+      <c r="F33" s="17">
         <f t="shared" si="0"/>
         <v>5.3382458447925371E-2</v>
       </c>
-      <c r="J44" s="23">
+      <c r="G33" s="66">
         <f t="shared" si="0"/>
         <v>1.6393442622950821E-2</v>
       </c>
-      <c r="K44" s="127">
-        <f>SUM(F44:J44)</f>
-        <v>0.23063830416756223</v>
-      </c>
-      <c r="L44" s="121">
-        <f>K44/C44</f>
-        <v>4.3060692798839844</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="76" t="s">
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="87">
-        <f>SUM(C33:F33)/4</f>
-        <v>0.33797951158060285</v>
-      </c>
-      <c r="E45" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v>Documentation</v>
-      </c>
-      <c r="F45" s="23">
+      <c r="C34" s="17">
         <f t="shared" si="0"/>
         <v>0.23809523809523808</v>
       </c>
-      <c r="G45" s="23">
+      <c r="D34" s="17">
         <f t="shared" si="0"/>
         <v>0.34884532198423224</v>
       </c>
-      <c r="H45" s="23">
+      <c r="E34" s="17">
         <f t="shared" si="0"/>
         <v>0.39130775050217831</v>
       </c>
-      <c r="I45" s="23">
+      <c r="F34" s="17">
         <f t="shared" si="0"/>
         <v>0.37366973574076284</v>
       </c>
-      <c r="J45" s="23">
+      <c r="G34" s="66">
         <f t="shared" si="0"/>
         <v>0.24590163934426232</v>
       </c>
-      <c r="K45" s="127">
-        <f t="shared" ref="K45:K48" si="1">SUM(F45:J45)</f>
-        <v>1.5978196856666738</v>
-      </c>
-      <c r="L45" s="121">
-        <f t="shared" ref="L45:L48" si="2">K45/C45</f>
-        <v>4.7275637454894026</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="76" t="s">
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="87">
-        <f>SUM(C34:F34)/4</f>
-        <v>0.12852683210773577</v>
-      </c>
-      <c r="E46" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v>Niveau d'accessibilité</v>
-      </c>
-      <c r="F46" s="23">
+      <c r="C35" s="17">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="G46" s="23">
+      <c r="D35" s="17">
         <f t="shared" si="0"/>
         <v>0.1162701458173446</v>
       </c>
-      <c r="H46" s="23">
+      <c r="E35" s="17">
         <f t="shared" si="0"/>
         <v>0.13043591683405942</v>
       </c>
-      <c r="I46" s="23">
+      <c r="F35" s="17">
         <f t="shared" si="0"/>
         <v>0.12454412292239625</v>
       </c>
-      <c r="J46" s="23">
+      <c r="G35" s="66">
         <f t="shared" si="0"/>
         <v>0.24590163934426232</v>
       </c>
-      <c r="K46" s="127">
-        <f t="shared" si="1"/>
-        <v>0.76000896777520544</v>
-      </c>
-      <c r="L46" s="121">
-        <f t="shared" si="2"/>
-        <v>5.9132319322874061</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="87">
-        <f>SUM(C35:F35)/4</f>
-        <v>0.36178903539012663</v>
-      </c>
-      <c r="E47" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v>Sécurité</v>
-      </c>
-      <c r="F47" s="23">
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="17">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G47" s="23">
+      <c r="D36" s="17">
         <f t="shared" si="0"/>
         <v>0.34884532198423224</v>
       </c>
-      <c r="H47" s="23">
+      <c r="E36" s="17">
         <f t="shared" si="0"/>
         <v>0.39130775050217831</v>
       </c>
-      <c r="I47" s="23">
+      <c r="F36" s="17">
         <f t="shared" si="0"/>
         <v>0.37366973574076284</v>
       </c>
-      <c r="J47" s="23">
+      <c r="G36" s="66">
         <f t="shared" si="0"/>
         <v>0.4098360655737705</v>
       </c>
-      <c r="K47" s="127">
-        <f t="shared" si="1"/>
-        <v>1.856992207134277</v>
-      </c>
-      <c r="L47" s="121">
-        <f t="shared" si="2"/>
-        <v>5.1328039975889084</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="89" t="s">
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="87">
-        <f>SUM(C36:F36)/4</f>
-        <v>0.1181434055353818</v>
-      </c>
-      <c r="E48" s="78" t="str">
-        <f t="shared" si="0"/>
-        <v>Taux d’activité</v>
-      </c>
-      <c r="F48" s="32">
+      <c r="C37" s="17">
         <f t="shared" si="0"/>
         <v>0.23809523809523808</v>
       </c>
-      <c r="G48" s="32">
+      <c r="D37" s="17">
         <f t="shared" si="0"/>
         <v>0.1162701458173446</v>
       </c>
-      <c r="H48" s="32">
+      <c r="E37" s="17">
         <f t="shared" si="0"/>
         <v>4.3474291080792003E-2</v>
       </c>
-      <c r="I48" s="32">
+      <c r="F37" s="17">
         <f t="shared" si="0"/>
         <v>7.4733947148152569E-2</v>
       </c>
-      <c r="J48" s="32">
+      <c r="G37" s="66">
         <f t="shared" si="0"/>
         <v>8.1967213114754106E-2</v>
       </c>
-      <c r="K48" s="128">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="25">
+        <f>SUM(C33:C37)</f>
+        <v>1</v>
+      </c>
+      <c r="D38" s="25">
+        <f>SUM(D33:D37)</f>
+        <v>1</v>
+      </c>
+      <c r="E38" s="25">
+        <f>SUM(E33:E37)</f>
+        <v>1</v>
+      </c>
+      <c r="F38" s="25">
+        <f>SUM(F33:F37)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="G38" s="70">
+        <f>SUM(G33:G37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="118"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="115"/>
+      <c r="L43" s="116"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="79" t="str">
+        <f t="shared" ref="E44:J49" si="1">B32</f>
+        <v>Critères</v>
+      </c>
+      <c r="F44" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>Communauté</v>
+      </c>
+      <c r="G44" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>Documentation</v>
+      </c>
+      <c r="H44" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>Niveau d'accessibilité</v>
+      </c>
+      <c r="I44" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>Sécurité</v>
+      </c>
+      <c r="J44" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>Taux d’activité</v>
+      </c>
+      <c r="K44" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="89" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="72">
+        <f t="shared" ref="C45:C50" si="2">SUM(C33:F33)/4</f>
+        <v>5.3561215386152855E-2</v>
+      </c>
+      <c r="E45" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Communauté </v>
+      </c>
+      <c r="F45" s="17">
+        <f t="shared" si="1"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="G45" s="17">
+        <f t="shared" si="1"/>
+        <v>6.976906439684645E-2</v>
+      </c>
+      <c r="H45" s="17">
+        <f t="shared" si="1"/>
+        <v>4.3474291080792003E-2</v>
+      </c>
+      <c r="I45" s="17">
+        <f t="shared" si="1"/>
+        <v>5.3382458447925371E-2</v>
+      </c>
+      <c r="J45" s="17">
+        <f t="shared" si="1"/>
+        <v>1.6393442622950821E-2</v>
+      </c>
+      <c r="K45" s="92">
+        <f>SUM(F45:J45)</f>
+        <v>0.23063830416756223</v>
+      </c>
+      <c r="L45" s="89">
+        <f>K45/C45</f>
+        <v>4.3060692798839844</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="72">
+        <f t="shared" si="2"/>
+        <v>0.33797951158060285</v>
+      </c>
+      <c r="E46" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>Documentation</v>
+      </c>
+      <c r="F46" s="17">
+        <f t="shared" si="1"/>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="G46" s="17">
+        <f t="shared" si="1"/>
+        <v>0.34884532198423224</v>
+      </c>
+      <c r="H46" s="17">
+        <f t="shared" si="1"/>
+        <v>0.39130775050217831</v>
+      </c>
+      <c r="I46" s="17">
+        <f t="shared" si="1"/>
+        <v>0.37366973574076284</v>
+      </c>
+      <c r="J46" s="17">
+        <f t="shared" si="1"/>
+        <v>0.24590163934426232</v>
+      </c>
+      <c r="K46" s="92">
+        <f t="shared" ref="K46:K49" si="3">SUM(F46:J46)</f>
+        <v>1.5978196856666738</v>
+      </c>
+      <c r="L46" s="89">
+        <f t="shared" ref="L46:L49" si="4">K46/C46</f>
+        <v>4.7275637454894026</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="72">
+        <f t="shared" si="2"/>
+        <v>0.12852683210773577</v>
+      </c>
+      <c r="E47" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>Niveau d'accessibilité</v>
+      </c>
+      <c r="F47" s="17">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G47" s="17">
+        <f t="shared" si="1"/>
+        <v>0.1162701458173446</v>
+      </c>
+      <c r="H47" s="17">
+        <f t="shared" si="1"/>
+        <v>0.13043591683405942</v>
+      </c>
+      <c r="I47" s="17">
+        <f t="shared" si="1"/>
+        <v>0.12454412292239625</v>
+      </c>
+      <c r="J47" s="17">
+        <f t="shared" si="1"/>
+        <v>0.24590163934426232</v>
+      </c>
+      <c r="K47" s="92">
+        <f t="shared" si="3"/>
+        <v>0.76000896777520544</v>
+      </c>
+      <c r="L47" s="89">
+        <f t="shared" si="4"/>
+        <v>5.9132319322874061</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="72">
+        <f t="shared" si="2"/>
+        <v>0.36178903539012663</v>
+      </c>
+      <c r="E48" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>Sécurité</v>
+      </c>
+      <c r="F48" s="17">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G48" s="17">
+        <f t="shared" si="1"/>
+        <v>0.34884532198423224</v>
+      </c>
+      <c r="H48" s="17">
+        <f t="shared" si="1"/>
+        <v>0.39130775050217831</v>
+      </c>
+      <c r="I48" s="17">
+        <f t="shared" si="1"/>
+        <v>0.37366973574076284</v>
+      </c>
+      <c r="J48" s="17">
+        <f t="shared" si="1"/>
+        <v>0.4098360655737705</v>
+      </c>
+      <c r="K48" s="92">
+        <f t="shared" si="3"/>
+        <v>1.856992207134277</v>
+      </c>
+      <c r="L48" s="89">
+        <f t="shared" si="4"/>
+        <v>5.1328039975889084</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="72">
+        <f t="shared" si="2"/>
+        <v>0.1181434055353818</v>
+      </c>
+      <c r="E49" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>Taux d’activité</v>
+      </c>
+      <c r="F49" s="26">
+        <f t="shared" si="1"/>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="G49" s="26">
+        <f t="shared" si="1"/>
+        <v>0.1162701458173446</v>
+      </c>
+      <c r="H49" s="26">
+        <f t="shared" si="1"/>
+        <v>4.3474291080792003E-2</v>
+      </c>
+      <c r="I49" s="26">
+        <f t="shared" si="1"/>
+        <v>7.4733947148152569E-2</v>
+      </c>
+      <c r="J49" s="26">
+        <f t="shared" si="1"/>
+        <v>8.1967213114754106E-2</v>
+      </c>
+      <c r="K49" s="93">
+        <f t="shared" si="3"/>
         <v>0.55454083525628128</v>
       </c>
-      <c r="L48" s="122">
+      <c r="L49" s="90">
+        <f t="shared" si="4"/>
+        <v>4.6937942303534363</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="73">
         <f t="shared" si="2"/>
-        <v>4.6937942303534363</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="88">
-        <f>SUM(C37:F37)/4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="9"/>
-    </row>
-    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="93" t="s">
+      <c r="C54" s="113"/>
+    </row>
+    <row r="55" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="69">
-        <f>SUM(L44:L48)/5</f>
+      <c r="C55" s="56">
+        <f>SUM(L45:L49)/5</f>
         <v>4.9546926371206279</v>
       </c>
-      <c r="E54" s="113" t="s">
+      <c r="E55" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="F54" s="114"/>
-      <c r="G54" s="117" t="str">
-        <f>IF(AND(C56&gt;0,C56&lt;0.1),"Valide","Non Valide")</f>
+      <c r="F55" s="104"/>
+      <c r="G55" s="107" t="str">
+        <f>IF(AND(C57&gt;0,C57&lt;0.1),"Valide","Non Valide")</f>
         <v>Non Valide</v>
       </c>
-      <c r="H54" s="117"/>
-      <c r="I54" s="118"/>
-    </row>
-    <row r="55" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="93" t="s">
+      <c r="H55" s="107"/>
+      <c r="I55" s="108"/>
+    </row>
+    <row r="56" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="69">
-        <f>(C54-5)/4</f>
+      <c r="C56" s="56">
+        <f>(C55-5)/4</f>
         <v>-1.1326840719843023E-2</v>
       </c>
-      <c r="E55" s="115"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="120"/>
-    </row>
-    <row r="56" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="123" t="s">
+      <c r="E56" s="105"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="110"/>
+    </row>
+    <row r="57" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="103">
-        <f>C55/1.12</f>
+      <c r="C57" s="88">
+        <f>C56/1.12</f>
         <v>-1.0113250642716985E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="7" t="s">
+    <row r="61" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="94" t="s">
+      <c r="C62" s="112"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="113"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="C63" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="58" t="s">
+      <c r="D63" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="91" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="76" t="s">
+      <c r="E63" s="76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="23">
-        <v>4</v>
-      </c>
-      <c r="D63" s="23">
+      <c r="C64" s="17">
+        <v>4</v>
+      </c>
+      <c r="D64" s="17">
         <v>2</v>
       </c>
-      <c r="E63" s="81">
+      <c r="E64" s="66">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="76" t="s">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="23">
-        <v>4</v>
-      </c>
-      <c r="D64" s="23">
-        <v>3</v>
-      </c>
-      <c r="E64" s="81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="76" t="s">
+      <c r="C65" s="17">
+        <v>4</v>
+      </c>
+      <c r="D65" s="17">
+        <v>3</v>
+      </c>
+      <c r="E65" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="23">
-        <v>4</v>
-      </c>
-      <c r="D65" s="23">
-        <v>1</v>
-      </c>
-      <c r="E65" s="81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="23">
+      <c r="C66" s="17">
+        <v>4</v>
+      </c>
+      <c r="D66" s="17">
+        <v>1</v>
+      </c>
+      <c r="E66" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="17">
         <v>0</v>
       </c>
-      <c r="D66" s="23">
-        <v>1</v>
-      </c>
-      <c r="E66" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="78" t="s">
+      <c r="D67" s="17">
+        <v>1</v>
+      </c>
+      <c r="E67" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="32">
-        <v>4</v>
-      </c>
-      <c r="D67" s="32">
-        <v>3</v>
-      </c>
-      <c r="E67" s="92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="4"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="6"/>
-    </row>
+      <c r="C68" s="26">
+        <v>4</v>
+      </c>
+      <c r="D68" s="26">
+        <v>3</v>
+      </c>
+      <c r="E68" s="77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="74"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="54" t="s">
+      <c r="B73" s="100"/>
+      <c r="C73" s="101"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="101"/>
+      <c r="F73" s="101"/>
+      <c r="G73" s="101"/>
+      <c r="H73" s="101"/>
+      <c r="I73" s="102"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="59"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="54"/>
-      <c r="F73" s="55" t="s">
+      <c r="E74" s="119"/>
+      <c r="F74" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="55"/>
-      <c r="H73" s="56" t="s">
+      <c r="G74" s="120"/>
+      <c r="H74" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="I73" s="110"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="68" t="s">
+      <c r="I74" s="122"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="57" t="s">
+      <c r="C75" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="58" t="s">
+      <c r="D75" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="58" t="s">
+      <c r="E75" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F74" s="59" t="s">
+      <c r="F75" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G74" s="59" t="s">
+      <c r="G75" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="60" t="s">
+      <c r="H75" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="I74" s="69" t="s">
+      <c r="I75" s="56" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="76" t="s">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C75" s="61">
-        <f>C44</f>
+      <c r="C76" s="52">
+        <f>C45</f>
         <v>5.3561215386152855E-2</v>
       </c>
-      <c r="D75" s="58">
-        <f>C63</f>
-        <v>4</v>
-      </c>
-      <c r="E75" s="58">
-        <f>D75*C75</f>
+      <c r="D76" s="49">
+        <f>C64</f>
+        <v>4</v>
+      </c>
+      <c r="E76" s="49">
+        <f>D76*C76</f>
         <v>0.21424486154461142</v>
       </c>
-      <c r="F75" s="59">
-        <f>D63</f>
+      <c r="F76" s="50">
+        <f>D64</f>
         <v>2</v>
       </c>
-      <c r="G75" s="59">
-        <f>C75*F75</f>
+      <c r="G76" s="50">
+        <f>C76*F76</f>
         <v>0.10712243077230571</v>
       </c>
-      <c r="H75" s="60">
-        <f>E63</f>
+      <c r="H76" s="51">
+        <f>E64</f>
         <v>0</v>
       </c>
-      <c r="I75" s="69">
-        <f>C75*H75</f>
+      <c r="I76" s="56">
+        <f>C76*H76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="76" t="s">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="61">
-        <f>C45</f>
+      <c r="C77" s="52">
+        <f>C46</f>
         <v>0.33797951158060285</v>
       </c>
-      <c r="D76" s="58">
-        <f>C64</f>
-        <v>4</v>
-      </c>
-      <c r="E76" s="58">
-        <f t="shared" ref="E76:E78" si="3">D76*C76</f>
+      <c r="D77" s="49">
+        <f>C65</f>
+        <v>4</v>
+      </c>
+      <c r="E77" s="49">
+        <f t="shared" ref="E77:E79" si="5">D77*C77</f>
         <v>1.3519180463224114</v>
       </c>
-      <c r="F76" s="59">
-        <f>D64</f>
-        <v>3</v>
-      </c>
-      <c r="G76" s="59">
-        <f t="shared" ref="G76:G78" si="4">C76*F76</f>
+      <c r="F77" s="50">
+        <f>D65</f>
+        <v>3</v>
+      </c>
+      <c r="G77" s="50">
+        <f t="shared" ref="G77:G79" si="6">C77*F77</f>
         <v>1.0139385347418086</v>
       </c>
-      <c r="H76" s="60">
-        <f>E64</f>
-        <v>3</v>
-      </c>
-      <c r="I76" s="69">
-        <f t="shared" ref="I76:I78" si="5">C76*H76</f>
+      <c r="H77" s="51">
+        <f>E65</f>
+        <v>3</v>
+      </c>
+      <c r="I77" s="56">
+        <f t="shared" ref="I77:I79" si="7">C77*H77</f>
         <v>1.0139385347418086</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="61">
-        <f>C46</f>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="52">
+        <f>C47</f>
         <v>0.12852683210773577</v>
       </c>
-      <c r="D77" s="58">
-        <f>C65</f>
-        <v>4</v>
-      </c>
-      <c r="E77" s="58">
-        <f t="shared" si="3"/>
-        <v>0.51410732843094309</v>
-      </c>
-      <c r="F77" s="59">
-        <f>D65</f>
-        <v>1</v>
-      </c>
-      <c r="G77" s="59">
-        <f t="shared" si="4"/>
-        <v>0.12852683210773577</v>
-      </c>
-      <c r="H77" s="60">
-        <f>E65</f>
-        <v>4</v>
-      </c>
-      <c r="I77" s="69">
+      <c r="D78" s="49">
+        <f>C66</f>
+        <v>4</v>
+      </c>
+      <c r="E78" s="49">
         <f t="shared" si="5"/>
         <v>0.51410732843094309</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="61">
-        <f>C47</f>
+      <c r="F78" s="50">
+        <f>D66</f>
+        <v>1</v>
+      </c>
+      <c r="G78" s="50">
+        <f t="shared" si="6"/>
+        <v>0.12852683210773577</v>
+      </c>
+      <c r="H78" s="51">
+        <f>E66</f>
+        <v>4</v>
+      </c>
+      <c r="I78" s="56">
+        <f t="shared" si="7"/>
+        <v>0.51410732843094309</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="52">
+        <f>C48</f>
         <v>0.36178903539012663</v>
       </c>
-      <c r="D78" s="58">
-        <f>C66</f>
+      <c r="D79" s="49">
+        <f>C67</f>
         <v>0</v>
       </c>
-      <c r="E78" s="58">
-        <f t="shared" si="3"/>
+      <c r="E79" s="49">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F78" s="59">
-        <f>D66</f>
-        <v>1</v>
-      </c>
-      <c r="G78" s="59">
-        <f t="shared" si="4"/>
+      <c r="F79" s="50">
+        <f>D67</f>
+        <v>1</v>
+      </c>
+      <c r="G79" s="50">
+        <f t="shared" si="6"/>
         <v>0.36178903539012663</v>
       </c>
-      <c r="H78" s="60">
-        <f>E66</f>
-        <v>1</v>
-      </c>
-      <c r="I78" s="69">
-        <f t="shared" si="5"/>
+      <c r="H79" s="51">
+        <f>E67</f>
+        <v>1</v>
+      </c>
+      <c r="I79" s="56">
+        <f t="shared" si="7"/>
         <v>0.36178903539012663</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="78" t="s">
+    <row r="80" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C79" s="99">
-        <f>C48</f>
+      <c r="C80" s="84">
+        <f>C49</f>
         <v>0.1181434055353818</v>
       </c>
-      <c r="D79" s="100">
-        <f>C67</f>
-        <v>4</v>
-      </c>
-      <c r="E79" s="100">
-        <f t="shared" ref="E79" si="6">D79*C79</f>
+      <c r="D80" s="85">
+        <f>C68</f>
+        <v>4</v>
+      </c>
+      <c r="E80" s="85">
+        <f t="shared" ref="E80" si="8">D80*C80</f>
         <v>0.47257362214152721</v>
       </c>
-      <c r="F79" s="101">
-        <f>D67</f>
-        <v>3</v>
-      </c>
-      <c r="G79" s="101">
-        <f t="shared" ref="G79" si="7">C79*F79</f>
+      <c r="F80" s="86">
+        <f>D68</f>
+        <v>3</v>
+      </c>
+      <c r="G80" s="86">
+        <f t="shared" ref="G80" si="9">C80*F80</f>
         <v>0.35443021660614538</v>
       </c>
-      <c r="H79" s="102">
-        <f>E67</f>
-        <v>3</v>
-      </c>
-      <c r="I79" s="103">
-        <f t="shared" ref="I79" si="8">C79*H79</f>
+      <c r="H80" s="87">
+        <f>E68</f>
+        <v>3</v>
+      </c>
+      <c r="I80" s="88">
+        <f t="shared" ref="I80" si="10">C80*H80</f>
         <v>0.35443021660614538</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-    </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
@@ -2751,95 +2592,101 @@
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
-      <c r="C83" s="3"/>
+      <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="C84" s="3"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" s="98" t="s">
-        <v>33</v>
-      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="95" t="s">
+    <row r="86" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="81">
-        <f>SUM(E75:E79)</f>
+      <c r="C87" s="66">
+        <f>SUM(E76:E80)</f>
         <v>2.552843858439493</v>
       </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="108" t="s">
+      <c r="D87" s="2"/>
+      <c r="E87" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="F86" s="104" t="str">
-        <f>IF(C86&gt;CET87*(C86&gt;C88),B86,IF(C87&gt;C88,B87,B88))</f>
+      <c r="F87" s="96" t="str">
+        <f>IF(C87&gt;CET88*(C87&gt;C89),B87,IF(C88&gt;C89,B88,B89))</f>
         <v>pentaho</v>
       </c>
-      <c r="G86" s="105"/>
-    </row>
-    <row r="87" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="81">
-        <f>SUM(G75:G79)</f>
+      <c r="G87" s="97"/>
+    </row>
+    <row r="88" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="66">
+        <f>SUM(G76:G80)</f>
         <v>1.9658070496181219</v>
       </c>
-      <c r="E87" s="109"/>
-      <c r="F87" s="106"/>
-      <c r="G87" s="107"/>
-    </row>
-    <row r="88" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="96" t="s">
+      <c r="E88" s="95"/>
+      <c r="F88" s="98"/>
+      <c r="G88" s="99"/>
+    </row>
+    <row r="89" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C88" s="92">
-        <f>SUM(I75:I79)</f>
+      <c r="C89" s="77">
+        <f>SUM(I76:I80)</f>
         <v>2.2442651151690236</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:G87"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="G54:I55"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E42:L42"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E43:L43"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:G88"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="E55:F56"/>
+    <mergeCell ref="G55:I56"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
   </mergeCells>
-  <conditionalFormatting sqref="G54:I55">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>"Not OK"</formula>
+  <conditionalFormatting sqref="G55:I56">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Non Valide"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Valide"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Valide"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"Non Valide"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Not OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2877,783 +2724,783 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="113"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="14">
         <v>7</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="15">
         <v>5</v>
       </c>
-      <c r="E4" s="22">
-        <v>3</v>
-      </c>
-      <c r="F4" s="23">
-        <v>1</v>
-      </c>
-      <c r="G4" s="24">
-        <v>3</v>
-      </c>
-      <c r="H4" s="25">
+      <c r="E4" s="16">
+        <v>3</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18">
+        <v>3</v>
+      </c>
+      <c r="H4" s="19">
         <v>5</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="20">
         <v>7</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="14">
         <v>7</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="15">
         <v>5</v>
       </c>
-      <c r="E5" s="22">
-        <v>3</v>
-      </c>
-      <c r="F5" s="23">
-        <v>1</v>
-      </c>
-      <c r="G5" s="24">
-        <v>3</v>
-      </c>
-      <c r="H5" s="25">
+      <c r="E5" s="16">
+        <v>3</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="18">
+        <v>3</v>
+      </c>
+      <c r="H5" s="19">
         <v>5</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="20">
         <v>7</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="14">
         <v>7</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="15">
         <v>5</v>
       </c>
-      <c r="E6" s="22">
-        <v>3</v>
-      </c>
-      <c r="F6" s="23">
-        <v>1</v>
-      </c>
-      <c r="G6" s="24">
-        <v>3</v>
-      </c>
-      <c r="H6" s="25">
+      <c r="E6" s="16">
+        <v>3</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18">
+        <v>3</v>
+      </c>
+      <c r="H6" s="19">
         <v>5</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="20">
         <v>7</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="14">
         <v>7</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="15">
         <v>5</v>
       </c>
-      <c r="E7" s="22">
-        <v>3</v>
-      </c>
-      <c r="F7" s="23">
-        <v>1</v>
-      </c>
-      <c r="G7" s="24">
-        <v>3</v>
-      </c>
-      <c r="H7" s="25">
+      <c r="E7" s="16">
+        <v>3</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18">
+        <v>3</v>
+      </c>
+      <c r="H7" s="19">
         <v>5</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="20">
         <v>7</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="14">
         <v>7</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="15">
         <v>5</v>
       </c>
-      <c r="E8" s="22">
-        <v>3</v>
-      </c>
-      <c r="F8" s="23">
-        <v>1</v>
-      </c>
-      <c r="G8" s="24">
-        <v>3</v>
-      </c>
-      <c r="H8" s="25">
+      <c r="E8" s="16">
+        <v>3</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
+        <v>3</v>
+      </c>
+      <c r="H8" s="19">
         <v>5</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="20">
         <v>7</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="29">
+      <c r="B9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="23">
         <v>7</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="24">
         <v>5</v>
       </c>
-      <c r="E9" s="31">
-        <v>3</v>
-      </c>
-      <c r="F9" s="32">
-        <v>1</v>
-      </c>
-      <c r="G9" s="33">
-        <v>3</v>
-      </c>
-      <c r="H9" s="34">
+      <c r="E9" s="25">
+        <v>3</v>
+      </c>
+      <c r="F9" s="26">
+        <v>1</v>
+      </c>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28">
         <v>5</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="29">
         <v>7</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="113"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="27" t="s">
+      <c r="E15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="39">
-        <v>1</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="C16" s="33">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
         <v>0.2</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="8">
         <v>0.33329999999999999</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="34">
         <v>0.14285999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="8">
         <v>5</v>
       </c>
-      <c r="D17" s="39">
-        <v>1</v>
-      </c>
-      <c r="E17" s="14">
-        <v>3</v>
-      </c>
-      <c r="F17" s="40">
+      <c r="D17" s="33">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
+      <c r="F17" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="14">
-        <v>3</v>
-      </c>
-      <c r="D18" s="14">
+      <c r="B18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8">
         <v>0.33329999999999999</v>
       </c>
-      <c r="E18" s="39">
-        <v>1</v>
-      </c>
-      <c r="F18" s="40">
+      <c r="E18" s="33">
+        <v>1</v>
+      </c>
+      <c r="F18" s="34">
         <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="41">
+      <c r="B19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="35">
         <v>7</v>
       </c>
-      <c r="D19" s="41">
-        <v>1</v>
-      </c>
-      <c r="E19" s="41">
-        <v>3</v>
-      </c>
-      <c r="F19" s="42">
+      <c r="D19" s="35">
+        <v>1</v>
+      </c>
+      <c r="E19" s="35">
+        <v>3</v>
+      </c>
+      <c r="F19" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="38">
         <f>SUM(C16:C19)</f>
         <v>16</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="38">
         <f t="shared" ref="D20:F20" si="0">SUM(D16:D19)</f>
         <v>2.5332999999999997</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="38">
         <f t="shared" si="0"/>
         <v>7.3332999999999995</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="39">
         <f t="shared" si="0"/>
         <v>2.4761600000000001</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="113"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="27" t="s">
+      <c r="E26" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="14">
-        <f>C16/C$20</f>
+      <c r="C27" s="8">
+        <f t="shared" ref="C27:F30" si="1">C16/C$20</f>
         <v>6.25E-2</v>
       </c>
-      <c r="D27" s="14">
-        <f>D16/D$20</f>
+      <c r="D27" s="8">
+        <f t="shared" si="1"/>
         <v>7.8948407215884434E-2</v>
       </c>
-      <c r="E27" s="14">
-        <f>E16/E$20</f>
+      <c r="E27" s="8">
+        <f t="shared" si="1"/>
         <v>4.5450206591848147E-2</v>
       </c>
-      <c r="F27" s="40">
-        <f>F16/F$20</f>
+      <c r="F27" s="34">
+        <f t="shared" si="1"/>
         <v>5.7694171620573782E-2</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="14">
-        <f>C17/C$20</f>
+      <c r="C28" s="8">
+        <f t="shared" si="1"/>
         <v>0.3125</v>
       </c>
-      <c r="D28" s="14">
-        <f>D17/D$20</f>
+      <c r="D28" s="8">
+        <f t="shared" si="1"/>
         <v>0.39474203607942215</v>
       </c>
-      <c r="E28" s="14">
-        <f>E17/E$20</f>
+      <c r="E28" s="8">
+        <f t="shared" si="1"/>
         <v>0.40909276860349369</v>
       </c>
-      <c r="F28" s="40">
-        <f>F17/F$20</f>
+      <c r="F28" s="34">
+        <f t="shared" si="1"/>
         <v>0.40385112432153009</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="14">
-        <f>C18/C$20</f>
+      <c r="B29" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
-      <c r="D29" s="14">
-        <f>D18/D$20</f>
+      <c r="D29" s="8">
+        <f t="shared" si="1"/>
         <v>0.13156752062527138</v>
       </c>
-      <c r="E29" s="14">
-        <f>E18/E$20</f>
+      <c r="E29" s="8">
+        <f t="shared" si="1"/>
         <v>0.13636425620116455</v>
       </c>
-      <c r="F29" s="40">
-        <f>F18/F$20</f>
+      <c r="F29" s="34">
+        <f t="shared" si="1"/>
         <v>0.13460357973636597</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="14">
-        <f>C19/C$20</f>
+      <c r="B30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" si="1"/>
         <v>0.4375</v>
       </c>
-      <c r="D30" s="14">
-        <f>D19/D$20</f>
+      <c r="D30" s="8">
+        <f t="shared" si="1"/>
         <v>0.39474203607942215</v>
       </c>
-      <c r="E30" s="14">
-        <f>E19/E$20</f>
+      <c r="E30" s="8">
+        <f t="shared" si="1"/>
         <v>0.40909276860349369</v>
       </c>
-      <c r="F30" s="40">
-        <f>F19/F$20</f>
+      <c r="F30" s="34">
+        <f t="shared" si="1"/>
         <v>0.40385112432153009</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="38">
         <f>SUM(C27:C30)</f>
         <v>1</v>
       </c>
-      <c r="D31" s="44">
-        <f t="shared" ref="D31" si="1">SUM(D27:D30)</f>
-        <v>1</v>
-      </c>
-      <c r="E31" s="44">
-        <f t="shared" ref="E31" si="2">SUM(E27:E30)</f>
-        <v>1</v>
-      </c>
-      <c r="F31" s="45">
-        <f t="shared" ref="F31" si="3">SUM(F27:F30)</f>
+      <c r="D31" s="38">
+        <f t="shared" ref="D31" si="2">SUM(D27:D30)</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="38">
+        <f t="shared" ref="E31" si="3">SUM(E27:E30)</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="39">
+        <f t="shared" ref="F31" si="4">SUM(F27:F30)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="102"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="42" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C38" s="40">
         <f>SUM(C27:F27)/4</f>
         <v>6.1148196357076585E-2</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C39" s="40">
         <f>SUM(C28:F28)/4</f>
         <v>0.38004648225111148</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="46">
+      <c r="B40" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="40">
         <f>SUM(C29:F29)/4</f>
         <v>0.14750883914070048</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="46">
+      <c r="B41" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="40">
         <f>SUM(C30:F30)/4</f>
         <v>0.41129648225111148</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="47">
+      <c r="C42" s="41">
         <f>SUM(C31:F31)/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="113"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D48" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E48" s="52" t="s">
+      <c r="E48" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="14">
-        <v>4</v>
-      </c>
-      <c r="D49" s="14">
+      <c r="C49" s="8">
+        <v>4</v>
+      </c>
+      <c r="D49" s="8">
         <v>2</v>
       </c>
-      <c r="E49" s="40">
+      <c r="E49" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="14">
-        <v>4</v>
-      </c>
-      <c r="D50" s="14">
-        <v>3</v>
-      </c>
-      <c r="E50" s="40">
+      <c r="C50" s="8">
+        <v>4</v>
+      </c>
+      <c r="D50" s="8">
+        <v>3</v>
+      </c>
+      <c r="E50" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="14">
-        <v>4</v>
-      </c>
-      <c r="D51" s="14">
-        <v>1</v>
-      </c>
-      <c r="E51" s="40">
+      <c r="B51" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="8">
+        <v>4</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+      <c r="E51" s="34">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="49">
+      <c r="B52" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="43">
         <v>0</v>
       </c>
-      <c r="D52" s="49">
-        <v>1</v>
-      </c>
-      <c r="E52" s="50">
+      <c r="D52" s="43">
+        <v>1</v>
+      </c>
+      <c r="E52" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="62"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="64" t="s">
+      <c r="B57" s="53"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="64"/>
-      <c r="F57" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="G57" s="65"/>
-      <c r="H57" s="66" t="s">
+      <c r="E57" s="127"/>
+      <c r="F57" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="128"/>
+      <c r="H57" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="I57" s="67"/>
+      <c r="I57" s="125"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="C58" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="58" t="s">
+      <c r="D58" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="58" t="s">
+      <c r="E58" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="59" t="s">
+      <c r="F58" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="59" t="s">
+      <c r="G58" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="60" t="s">
+      <c r="H58" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="I58" s="69" t="s">
+      <c r="I58" s="56" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="61">
+      <c r="C59" s="52">
         <v>6.1148196357076585E-2</v>
       </c>
-      <c r="D59" s="58">
-        <v>4</v>
-      </c>
-      <c r="E59" s="58">
+      <c r="D59" s="49">
+        <v>4</v>
+      </c>
+      <c r="E59" s="49">
         <f>D59*C59</f>
         <v>0.24459278542830634</v>
       </c>
-      <c r="F59" s="59">
+      <c r="F59" s="50">
         <v>0</v>
       </c>
-      <c r="G59" s="59">
+      <c r="G59" s="50">
         <f>C59*F59</f>
         <v>0</v>
       </c>
-      <c r="H59" s="60">
+      <c r="H59" s="51">
         <v>2</v>
       </c>
-      <c r="I59" s="69">
+      <c r="I59" s="56">
         <f>C59*H59</f>
         <v>0.12229639271415317</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="68" t="s">
+      <c r="B60" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="61">
+      <c r="C60" s="52">
         <v>0.38004648225111148</v>
       </c>
-      <c r="D60" s="58">
-        <v>4</v>
-      </c>
-      <c r="E60" s="58">
-        <f t="shared" ref="E60:E62" si="4">D60*C60</f>
+      <c r="D60" s="49">
+        <v>4</v>
+      </c>
+      <c r="E60" s="49">
+        <f t="shared" ref="E60:E62" si="5">D60*C60</f>
         <v>1.5201859290044459</v>
       </c>
-      <c r="F60" s="59">
-        <v>3</v>
-      </c>
-      <c r="G60" s="59">
-        <f t="shared" ref="G60:G62" si="5">C60*F60</f>
+      <c r="F60" s="50">
+        <v>3</v>
+      </c>
+      <c r="G60" s="50">
+        <f t="shared" ref="G60:G62" si="6">C60*F60</f>
         <v>1.1401394467533343</v>
       </c>
-      <c r="H60" s="60">
-        <v>3</v>
-      </c>
-      <c r="I60" s="69">
-        <f t="shared" ref="I60:I62" si="6">C60*H60</f>
+      <c r="H60" s="51">
+        <v>3</v>
+      </c>
+      <c r="I60" s="56">
+        <f t="shared" ref="I60:I62" si="7">C60*H60</f>
         <v>1.1401394467533343</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="68" t="s">
+      <c r="B61" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="61">
+      <c r="C61" s="52">
         <v>0.14750883914070048</v>
       </c>
-      <c r="D61" s="58">
-        <v>4</v>
-      </c>
-      <c r="E61" s="58">
-        <f t="shared" si="4"/>
-        <v>0.59003535656280193</v>
-      </c>
-      <c r="F61" s="59">
-        <v>4</v>
-      </c>
-      <c r="G61" s="59">
+      <c r="D61" s="49">
+        <v>4</v>
+      </c>
+      <c r="E61" s="49">
         <f t="shared" si="5"/>
         <v>0.59003535656280193</v>
       </c>
-      <c r="H61" s="60">
-        <v>1</v>
-      </c>
-      <c r="I61" s="69">
+      <c r="F61" s="50">
+        <v>4</v>
+      </c>
+      <c r="G61" s="50">
         <f t="shared" si="6"/>
+        <v>0.59003535656280193</v>
+      </c>
+      <c r="H61" s="51">
+        <v>1</v>
+      </c>
+      <c r="I61" s="56">
+        <f t="shared" si="7"/>
         <v>0.14750883914070048</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="61">
+      <c r="B62" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="52">
         <v>0.41129648225111148</v>
       </c>
-      <c r="D62" s="58">
+      <c r="D62" s="49">
         <v>0</v>
       </c>
-      <c r="E62" s="58">
-        <f t="shared" si="4"/>
+      <c r="E62" s="49">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F62" s="59">
-        <v>1</v>
-      </c>
-      <c r="G62" s="59">
-        <f t="shared" si="5"/>
-        <v>0.41129648225111148</v>
-      </c>
-      <c r="H62" s="60">
-        <v>1</v>
-      </c>
-      <c r="I62" s="69">
+      <c r="F62" s="50">
+        <v>1</v>
+      </c>
+      <c r="G62" s="50">
         <f t="shared" si="6"/>
         <v>0.41129648225111148</v>
       </c>
+      <c r="H62" s="51">
+        <v>1</v>
+      </c>
+      <c r="I62" s="56">
+        <f t="shared" si="7"/>
+        <v>0.41129648225111148</v>
+      </c>
     </row>
     <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="70" t="s">
+      <c r="B63" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="71"/>
-      <c r="D63" s="72">
+      <c r="C63" s="58"/>
+      <c r="D63" s="123">
         <f>SUM(E59:E62)</f>
         <v>2.3548140709955541</v>
       </c>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72">
-        <f t="shared" ref="F63" si="7">SUM(F59:F62)</f>
+      <c r="E63" s="123"/>
+      <c r="F63" s="123">
+        <f t="shared" ref="F63" si="8">SUM(F59:F62)</f>
         <v>8</v>
       </c>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72">
-        <f t="shared" ref="H63" si="8">SUM(H59:H62)</f>
+      <c r="G63" s="123"/>
+      <c r="H63" s="123">
+        <f t="shared" ref="H63" si="9">SUM(H59:H62)</f>
         <v>7</v>
       </c>
-      <c r="I63" s="73"/>
+      <c r="I63" s="126"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D64" s="2"/>

--- a/chalal.xlsx
+++ b/chalal.xlsx
@@ -166,7 +166,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +204,14 @@
       <b/>
       <sz val="28"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF1711"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -590,7 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -720,18 +731,12 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -750,9 +755,6 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -807,6 +809,33 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -858,30 +887,6 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -912,7 +917,28 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -959,8 +985,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFA7A60"/>
       <color rgb="FFFF1711"/>
-      <color rgb="FFFA7A60"/>
     </mruColors>
   </colors>
   <extLst>
@@ -978,16 +1004,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>625929</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>585108</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>214993</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>174172</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>10885</xdr:rowOff>
+      <xdr:rowOff>51707</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -998,8 +1024,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15484929" y="227239"/>
-          <a:ext cx="6447064" cy="3241221"/>
+          <a:off x="31105929" y="272143"/>
+          <a:ext cx="6447064" cy="3249385"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
@@ -1374,8 +1400,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,27 +1419,27 @@
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="111" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="113"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="129" t="s">
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="76" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -1439,8 +1465,8 @@
       </c>
       <c r="J3" s="60"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="129" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="76" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="14">
@@ -1466,22 +1492,25 @@
       </c>
       <c r="J4" s="60"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="61" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
       <c r="J5" s="62" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
         <v>29</v>
       </c>
@@ -1495,8 +1524,11 @@
       <c r="J6" s="62" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
         <v>29</v>
       </c>
@@ -1510,8 +1542,11 @@
       <c r="J7" s="62" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="61" t="s">
         <v>29</v>
       </c>
@@ -1525,8 +1560,11 @@
       <c r="J8" s="62" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="61" t="s">
         <v>2</v>
       </c>
@@ -1540,8 +1578,11 @@
       <c r="J9" s="62" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="61" t="s">
         <v>2</v>
       </c>
@@ -1555,8 +1596,11 @@
       <c r="J10" s="62" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="61" t="s">
         <v>2</v>
       </c>
@@ -1570,8 +1614,11 @@
       <c r="J11" s="62" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="61" t="s">
         <v>31</v>
       </c>
@@ -1585,10 +1632,13 @@
       <c r="J12" s="62" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="61" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
@@ -1600,8 +1650,11 @@
       <c r="J13" s="62" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="63" t="s">
         <v>4</v>
       </c>
@@ -1615,20 +1668,23 @@
       <c r="J14" s="64" t="s">
         <v>28</v>
       </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="113"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="94"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="76" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="50" t="s">
@@ -1651,140 +1707,160 @@
       <c r="B21" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="65">
-        <v>1</v>
-      </c>
-      <c r="D21" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="E21" s="17">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="F21" s="17">
-        <v>0.14285999999999999</v>
-      </c>
-      <c r="G21" s="66">
-        <v>0.2</v>
+      <c r="C21" s="128">
+        <v>1</v>
+      </c>
+      <c r="D21" s="127">
+        <f>IF(K5=1,7,IF(K5=2,5,IF(K5=3,3,IF(K5=4,1,IF(K5=5,0.3333,IF(K5=6,0.2,IF(K5=7,1/7)))))))</f>
+        <v>7</v>
+      </c>
+      <c r="E21" s="127">
+        <f>IF(K6=1,7,IF(K6=2,5,IF(K6=3,3,IF(K6=4,1,IF(K6=5,0.3333,IF(K6=6,0.2,IF(K6=7,1/7)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="F21" s="127">
+        <f>IF(K7=1,7,IF(K7=2,5,IF(K7=3,3,IF(K7=4,1,IF(K7=5,0.3333,IF(K7=6,0.2,IF(K7=7,1/7)))))))</f>
+        <v>3</v>
+      </c>
+      <c r="G21" s="129">
+        <f>IF(K8=1,7,IF(K8=2,5,IF(K8=3,3,IF(K8=4,1,IF(K8=5,0.3333,IF(K8=6,0.2,IF(K8=7,1/7)))))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="17">
-        <v>5</v>
-      </c>
-      <c r="D22" s="65">
-        <v>1</v>
-      </c>
-      <c r="E22" s="17">
-        <v>3</v>
-      </c>
-      <c r="F22" s="17">
-        <v>1</v>
-      </c>
-      <c r="G22" s="66">
-        <v>3</v>
+      <c r="C22" s="127">
+        <f>1/D21</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D22" s="128">
+        <v>1</v>
+      </c>
+      <c r="E22" s="127">
+        <f>IF(K9=1,7,IF(K9=2,5,IF(K9=3,3,IF(K9=4,1,IF(K9=5,0.3333,IF(K9=6,0.2,IF(K9=7,1/7)))))))</f>
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F22" s="127">
+        <f>IF(K10=1,7,IF(K10=2,5,IF(K10=3,3,IF(K10=4,1,IF(K10=5,0.3333,IF(K10=6,0.2,IF(K10=7,1/7)))))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="G22" s="129">
+        <f>IF(K11=1,7,IF(K11=2,5,IF(K11=3,3,IF(K11=4,1,IF(K11=5,0.3333,IF(K11=6,0.2,IF(K11=7,1/7)))))))</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="17">
-        <v>3</v>
-      </c>
-      <c r="D23" s="17">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="E23" s="65">
-        <v>1</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="G23" s="66">
-        <v>3</v>
+      <c r="C23" s="127">
+        <f>1/E21</f>
+        <v>0.2</v>
+      </c>
+      <c r="D23" s="127">
+        <f>1/E22</f>
+        <v>3.0003000300030003</v>
+      </c>
+      <c r="E23" s="128">
+        <v>1</v>
+      </c>
+      <c r="F23" s="127">
+        <f>IF(K12=1,7,IF(K12=2,5,IF(K12=3,3,IF(K12=4,1,IF(K12=5,0.3333,IF(K12=6,0.2,IF(K12=7,1/7)))))))</f>
+        <v>7</v>
+      </c>
+      <c r="G23" s="129">
+        <f>IF(K13=1,7,IF(K13=2,5,IF(K13=3,3,IF(K13=4,1,IF(K13=5,0.3333,IF(K13=6,0.2,IF(K13=7,1/7)))))))</f>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="130">
+        <f>1/F21</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D24" s="130">
+        <f>1/F22</f>
+        <v>5</v>
+      </c>
+      <c r="E24" s="130">
+        <f>1/F23</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F24" s="128">
+        <v>1</v>
+      </c>
+      <c r="G24" s="131">
+        <f>IF(K14=1,7,IF(K14=2,5,IF(K14=3,3,IF(K14=4,1,IF(K14=5,0.3333,IF(K14=6,0.2,IF(K14=7,1/7)))))))</f>
         <v>7</v>
-      </c>
-      <c r="D24" s="67">
-        <v>1</v>
-      </c>
-      <c r="E24" s="67">
-        <v>3</v>
-      </c>
-      <c r="F24" s="65">
-        <v>1</v>
-      </c>
-      <c r="G24" s="75">
-        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="67">
-        <v>5</v>
-      </c>
-      <c r="D25" s="67">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="E25" s="67">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="F25" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="G25" s="68">
+      <c r="C25" s="130">
+        <f>1/G21</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="130">
+        <f>1/G22</f>
+        <v>7</v>
+      </c>
+      <c r="E25" s="130">
+        <f>1/G23</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F25" s="130">
+        <f>1/G24</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G25" s="132">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="133">
         <f>SUM(C21:C25)</f>
-        <v>21</v>
-      </c>
-      <c r="D26" s="25">
+        <v>2.676190476190476</v>
+      </c>
+      <c r="D26" s="133">
         <f>SUM(D21:D25)</f>
-        <v>2.8665999999999996</v>
-      </c>
-      <c r="E26" s="25">
+        <v>23.000300030003</v>
+      </c>
+      <c r="E26" s="133">
         <f>SUM(E21:E25)</f>
-        <v>7.6665999999999999</v>
-      </c>
-      <c r="F26" s="25">
+        <v>6.6190142857142868</v>
+      </c>
+      <c r="F26" s="133">
         <f>SUM(F21:F25)</f>
-        <v>2.6761600000000003</v>
-      </c>
-      <c r="G26" s="70">
+        <v>11.342857142857142</v>
+      </c>
+      <c r="G26" s="134">
         <f>SUM(G21:G25)</f>
-        <v>12.2</v>
+        <v>16.142857142857142</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="113"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="94"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="76" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="50" t="s">
@@ -1809,23 +1885,23 @@
       </c>
       <c r="C33" s="17">
         <f t="shared" ref="C33:G37" si="0">C21/C$26</f>
-        <v>4.7619047619047616E-2</v>
+        <v>0.37366548042704628</v>
       </c>
       <c r="D33" s="17">
         <f t="shared" si="0"/>
-        <v>6.976906439684645E-2</v>
+        <v>0.30434385598747715</v>
       </c>
       <c r="E33" s="17">
         <f t="shared" si="0"/>
-        <v>4.3474291080792003E-2</v>
+        <v>0.75539948762331888</v>
       </c>
       <c r="F33" s="17">
         <f t="shared" si="0"/>
-        <v>5.3382458447925371E-2</v>
-      </c>
-      <c r="G33" s="66">
+        <v>0.26448362720403024</v>
+      </c>
+      <c r="G33" s="65">
         <f t="shared" si="0"/>
-        <v>1.6393442622950821E-2</v>
+        <v>6.1946902654867256E-2</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -1834,23 +1910,23 @@
       </c>
       <c r="C34" s="17">
         <f t="shared" si="0"/>
-        <v>0.23809523809523808</v>
+        <v>5.3380782918149468E-2</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" si="0"/>
-        <v>0.34884532198423224</v>
+        <v>4.347769371249674E-2</v>
       </c>
       <c r="E34" s="17">
         <f t="shared" si="0"/>
-        <v>0.39130775050217831</v>
+        <v>5.0354929844970434E-2</v>
       </c>
       <c r="F34" s="17">
         <f t="shared" si="0"/>
-        <v>0.37366973574076284</v>
-      </c>
-      <c r="G34" s="66">
+        <v>1.7632241813602019E-2</v>
+      </c>
+      <c r="G34" s="65">
         <f t="shared" si="0"/>
-        <v>0.24590163934426232</v>
+        <v>8.8495575221238937E-3</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -1859,23 +1935,23 @@
       </c>
       <c r="C35" s="17">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>7.4733096085409262E-2</v>
       </c>
       <c r="D35" s="17">
         <f t="shared" si="0"/>
-        <v>0.1162701458173446</v>
+        <v>0.13044612575006523</v>
       </c>
       <c r="E35" s="17">
         <f t="shared" si="0"/>
-        <v>0.13043591683405942</v>
+        <v>0.15107989752466378</v>
       </c>
       <c r="F35" s="17">
         <f t="shared" si="0"/>
-        <v>0.12454412292239625</v>
-      </c>
-      <c r="G35" s="66">
+        <v>0.61712846347607064</v>
+      </c>
+      <c r="G35" s="65">
         <f t="shared" si="0"/>
-        <v>0.24590163934426232</v>
+        <v>0.4336283185840708</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -1884,23 +1960,23 @@
       </c>
       <c r="C36" s="17">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.12455516014234876</v>
       </c>
       <c r="D36" s="17">
         <f t="shared" si="0"/>
-        <v>0.34884532198423224</v>
+        <v>0.2173884685624837</v>
       </c>
       <c r="E36" s="17">
         <f t="shared" si="0"/>
-        <v>0.39130775050217831</v>
+        <v>2.1582842503523395E-2</v>
       </c>
       <c r="F36" s="17">
         <f t="shared" si="0"/>
-        <v>0.37366973574076284</v>
-      </c>
-      <c r="G36" s="66">
+        <v>8.8161209068010088E-2</v>
+      </c>
+      <c r="G36" s="65">
         <f t="shared" si="0"/>
-        <v>0.4098360655737705</v>
+        <v>0.4336283185840708</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -1909,27 +1985,27 @@
       </c>
       <c r="C37" s="17">
         <f t="shared" si="0"/>
-        <v>0.23809523809523808</v>
+        <v>0.37366548042704628</v>
       </c>
       <c r="D37" s="17">
         <f t="shared" si="0"/>
-        <v>0.1162701458173446</v>
+        <v>0.30434385598747715</v>
       </c>
       <c r="E37" s="17">
         <f t="shared" si="0"/>
-        <v>4.3474291080792003E-2</v>
+        <v>2.1582842503523395E-2</v>
       </c>
       <c r="F37" s="17">
         <f t="shared" si="0"/>
-        <v>7.4733947148152569E-2</v>
-      </c>
-      <c r="G37" s="66">
+        <v>1.2594458438287154E-2</v>
+      </c>
+      <c r="G37" s="65">
         <f t="shared" si="0"/>
-        <v>8.1967213114754106E-2</v>
+        <v>6.1946902654867256E-2</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="67" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="25">
@@ -1942,41 +2018,41 @@
       </c>
       <c r="E38" s="25">
         <f>SUM(E33:E37)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F38" s="25">
         <f>SUM(F33:F37)</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="G38" s="70">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="G38" s="68">
         <f>SUM(G33:G37)</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="117" t="s">
+      <c r="B43" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="118"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="115"/>
-      <c r="L43" s="116"/>
+      <c r="C43" s="99"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="97"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="71" t="s">
+      <c r="C44" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="79" t="str">
-        <f t="shared" ref="E44:J49" si="1">B32</f>
+      <c r="E44" s="76" t="str">
+        <f t="shared" ref="E44:I49" si="1">B32</f>
         <v>Critères</v>
       </c>
       <c r="F44" s="50" t="str">
@@ -1996,13 +2072,13 @@
         <v>Sécurité</v>
       </c>
       <c r="J44" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J44:J49" si="2">G32</f>
         <v>Taux d’activité</v>
       </c>
-      <c r="K44" s="92" t="s">
+      <c r="K44" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="L44" s="89" t="s">
+      <c r="L44" s="86" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2010,9 +2086,9 @@
       <c r="B45" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="72">
-        <f t="shared" ref="C45:C50" si="2">SUM(C33:F33)/4</f>
-        <v>5.3561215386152855E-2</v>
+      <c r="C45" s="70">
+        <f t="shared" ref="C45:C50" si="3">SUM(C33:F33)/4</f>
+        <v>0.42447311281046818</v>
       </c>
       <c r="E45" s="61" t="str">
         <f t="shared" si="1"/>
@@ -2020,266 +2096,266 @@
       </c>
       <c r="F45" s="17">
         <f t="shared" si="1"/>
-        <v>4.7619047619047616E-2</v>
+        <v>0.37366548042704628</v>
       </c>
       <c r="G45" s="17">
         <f t="shared" si="1"/>
-        <v>6.976906439684645E-2</v>
+        <v>0.30434385598747715</v>
       </c>
       <c r="H45" s="17">
         <f t="shared" si="1"/>
-        <v>4.3474291080792003E-2</v>
+        <v>0.75539948762331888</v>
       </c>
       <c r="I45" s="17">
         <f t="shared" si="1"/>
-        <v>5.3382458447925371E-2</v>
+        <v>0.26448362720403024</v>
       </c>
       <c r="J45" s="17">
-        <f t="shared" si="1"/>
-        <v>1.6393442622950821E-2</v>
-      </c>
-      <c r="K45" s="92">
+        <f t="shared" si="2"/>
+        <v>6.1946902654867256E-2</v>
+      </c>
+      <c r="K45" s="89">
         <f>SUM(F45:J45)</f>
-        <v>0.23063830416756223</v>
-      </c>
-      <c r="L45" s="89">
+        <v>1.7598393538967401</v>
+      </c>
+      <c r="L45" s="86">
         <f>K45/C45</f>
-        <v>4.3060692798839844</v>
+        <v>4.1459383428192007</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="72">
+      <c r="C46" s="70">
+        <f t="shared" si="3"/>
+        <v>4.1211412072304665E-2</v>
+      </c>
+      <c r="E46" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>Documentation</v>
+      </c>
+      <c r="F46" s="17">
+        <f t="shared" si="1"/>
+        <v>5.3380782918149468E-2</v>
+      </c>
+      <c r="G46" s="17">
+        <f t="shared" si="1"/>
+        <v>4.347769371249674E-2</v>
+      </c>
+      <c r="H46" s="17">
+        <f t="shared" si="1"/>
+        <v>5.0354929844970434E-2</v>
+      </c>
+      <c r="I46" s="17">
+        <f t="shared" si="1"/>
+        <v>1.7632241813602019E-2</v>
+      </c>
+      <c r="J46" s="17">
         <f t="shared" si="2"/>
-        <v>0.33797951158060285</v>
-      </c>
-      <c r="E46" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v>Documentation</v>
-      </c>
-      <c r="F46" s="17">
-        <f t="shared" si="1"/>
-        <v>0.23809523809523808</v>
-      </c>
-      <c r="G46" s="17">
-        <f t="shared" si="1"/>
-        <v>0.34884532198423224</v>
-      </c>
-      <c r="H46" s="17">
-        <f t="shared" si="1"/>
-        <v>0.39130775050217831</v>
-      </c>
-      <c r="I46" s="17">
-        <f t="shared" si="1"/>
-        <v>0.37366973574076284</v>
-      </c>
-      <c r="J46" s="17">
-        <f t="shared" si="1"/>
-        <v>0.24590163934426232</v>
-      </c>
-      <c r="K46" s="92">
-        <f t="shared" ref="K46:K49" si="3">SUM(F46:J46)</f>
-        <v>1.5978196856666738</v>
-      </c>
-      <c r="L46" s="89">
-        <f t="shared" ref="L46:L49" si="4">K46/C46</f>
-        <v>4.7275637454894026</v>
+        <v>8.8495575221238937E-3</v>
+      </c>
+      <c r="K46" s="89">
+        <f>SUM(F46:J46)</f>
+        <v>0.17369520581134257</v>
+      </c>
+      <c r="L46" s="86">
+        <f>K46/C46</f>
+        <v>4.2147356054336971</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="72">
+      <c r="C47" s="70">
+        <f t="shared" si="3"/>
+        <v>0.24334689570905221</v>
+      </c>
+      <c r="E47" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>Niveau d'accessibilité</v>
+      </c>
+      <c r="F47" s="17">
+        <f t="shared" si="1"/>
+        <v>7.4733096085409262E-2</v>
+      </c>
+      <c r="G47" s="17">
+        <f t="shared" si="1"/>
+        <v>0.13044612575006523</v>
+      </c>
+      <c r="H47" s="17">
+        <f t="shared" si="1"/>
+        <v>0.15107989752466378</v>
+      </c>
+      <c r="I47" s="17">
+        <f t="shared" si="1"/>
+        <v>0.61712846347607064</v>
+      </c>
+      <c r="J47" s="17">
         <f t="shared" si="2"/>
-        <v>0.12852683210773577</v>
-      </c>
-      <c r="E47" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v>Niveau d'accessibilité</v>
-      </c>
-      <c r="F47" s="17">
-        <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G47" s="17">
-        <f t="shared" si="1"/>
-        <v>0.1162701458173446</v>
-      </c>
-      <c r="H47" s="17">
-        <f t="shared" si="1"/>
-        <v>0.13043591683405942</v>
-      </c>
-      <c r="I47" s="17">
-        <f t="shared" si="1"/>
-        <v>0.12454412292239625</v>
-      </c>
-      <c r="J47" s="17">
-        <f t="shared" si="1"/>
-        <v>0.24590163934426232</v>
-      </c>
-      <c r="K47" s="92">
-        <f t="shared" si="3"/>
-        <v>0.76000896777520544</v>
-      </c>
-      <c r="L47" s="89">
-        <f t="shared" si="4"/>
-        <v>5.9132319322874061</v>
+        <v>0.4336283185840708</v>
+      </c>
+      <c r="K47" s="89">
+        <f>SUM(F47:J47)</f>
+        <v>1.4070159014202797</v>
+      </c>
+      <c r="L47" s="86">
+        <f>K47/C47</f>
+        <v>5.7819348684132006</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="72">
+      <c r="C48" s="70">
+        <f t="shared" si="3"/>
+        <v>0.11292192006909149</v>
+      </c>
+      <c r="E48" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>Sécurité</v>
+      </c>
+      <c r="F48" s="17">
+        <f t="shared" si="1"/>
+        <v>0.12455516014234876</v>
+      </c>
+      <c r="G48" s="17">
+        <f t="shared" si="1"/>
+        <v>0.2173884685624837</v>
+      </c>
+      <c r="H48" s="17">
+        <f t="shared" si="1"/>
+        <v>2.1582842503523395E-2</v>
+      </c>
+      <c r="I48" s="17">
+        <f t="shared" si="1"/>
+        <v>8.8161209068010088E-2</v>
+      </c>
+      <c r="J48" s="17">
         <f t="shared" si="2"/>
-        <v>0.36178903539012663</v>
-      </c>
-      <c r="E48" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v>Sécurité</v>
-      </c>
-      <c r="F48" s="17">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G48" s="17">
-        <f t="shared" si="1"/>
-        <v>0.34884532198423224</v>
-      </c>
-      <c r="H48" s="17">
-        <f t="shared" si="1"/>
-        <v>0.39130775050217831</v>
-      </c>
-      <c r="I48" s="17">
-        <f t="shared" si="1"/>
-        <v>0.37366973574076284</v>
-      </c>
-      <c r="J48" s="17">
-        <f t="shared" si="1"/>
-        <v>0.4098360655737705</v>
-      </c>
-      <c r="K48" s="92">
+        <v>0.4336283185840708</v>
+      </c>
+      <c r="K48" s="89">
+        <f>SUM(F48:J48)</f>
+        <v>0.88531599886043677</v>
+      </c>
+      <c r="L48" s="86">
+        <f>K48/C48</f>
+        <v>7.8400721340794997</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="70">
         <f t="shared" si="3"/>
-        <v>1.856992207134277</v>
-      </c>
-      <c r="L48" s="89">
-        <f t="shared" si="4"/>
-        <v>5.1328039975889084</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="72">
+        <v>0.17804665933908348</v>
+      </c>
+      <c r="E49" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>Taux d’activité</v>
+      </c>
+      <c r="F49" s="26">
+        <f t="shared" si="1"/>
+        <v>0.37366548042704628</v>
+      </c>
+      <c r="G49" s="26">
+        <f t="shared" si="1"/>
+        <v>0.30434385598747715</v>
+      </c>
+      <c r="H49" s="26">
+        <f t="shared" si="1"/>
+        <v>2.1582842503523395E-2</v>
+      </c>
+      <c r="I49" s="26">
+        <f t="shared" si="1"/>
+        <v>1.2594458438287154E-2</v>
+      </c>
+      <c r="J49" s="26">
         <f t="shared" si="2"/>
-        <v>0.1181434055353818</v>
-      </c>
-      <c r="E49" s="63" t="str">
-        <f t="shared" si="1"/>
-        <v>Taux d’activité</v>
-      </c>
-      <c r="F49" s="26">
-        <f t="shared" si="1"/>
-        <v>0.23809523809523808</v>
-      </c>
-      <c r="G49" s="26">
-        <f t="shared" si="1"/>
-        <v>0.1162701458173446</v>
-      </c>
-      <c r="H49" s="26">
-        <f t="shared" si="1"/>
-        <v>4.3474291080792003E-2</v>
-      </c>
-      <c r="I49" s="26">
-        <f t="shared" si="1"/>
-        <v>7.4733947148152569E-2</v>
-      </c>
-      <c r="J49" s="26">
-        <f t="shared" si="1"/>
-        <v>8.1967213114754106E-2</v>
-      </c>
-      <c r="K49" s="93">
+        <v>6.1946902654867256E-2</v>
+      </c>
+      <c r="K49" s="90">
+        <f>SUM(F49:J49)</f>
+        <v>0.77413354001120116</v>
+      </c>
+      <c r="L49" s="87">
+        <f>K49/C49</f>
+        <v>4.3479251050528926</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="71">
         <f t="shared" si="3"/>
-        <v>0.55454083525628128</v>
-      </c>
-      <c r="L49" s="90">
-        <f t="shared" si="4"/>
-        <v>4.6937942303534363</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="73">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="111" t="s">
+      <c r="B54" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="113"/>
+      <c r="C54" s="94"/>
     </row>
     <row r="55" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="78" t="s">
+      <c r="B55" s="75" t="s">
         <v>38</v>
       </c>
       <c r="C55" s="56">
         <f>SUM(L45:L49)/5</f>
-        <v>4.9546926371206279</v>
-      </c>
-      <c r="E55" s="103" t="s">
+        <v>5.2661212111596978</v>
+      </c>
+      <c r="E55" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="104"/>
-      <c r="G55" s="107" t="str">
+      <c r="F55" s="110"/>
+      <c r="G55" s="113" t="str">
         <f>IF(AND(C57&gt;0,C57&lt;0.1),"Valide","Non Valide")</f>
-        <v>Non Valide</v>
-      </c>
-      <c r="H55" s="107"/>
-      <c r="I55" s="108"/>
+        <v>Valide</v>
+      </c>
+      <c r="H55" s="113"/>
+      <c r="I55" s="114"/>
     </row>
     <row r="56" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="78" t="s">
+      <c r="B56" s="75" t="s">
         <v>40</v>
       </c>
       <c r="C56" s="56">
         <f>(C55-5)/4</f>
-        <v>-1.1326840719843023E-2</v>
-      </c>
-      <c r="E56" s="105"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="110"/>
+        <v>6.6530302789924445E-2</v>
+      </c>
+      <c r="E56" s="111"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="115"/>
+      <c r="I56" s="116"/>
     </row>
     <row r="57" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="91" t="s">
+      <c r="B57" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="C57" s="88">
+      <c r="C57" s="85">
         <f>C56/1.12</f>
-        <v>-1.0113250642716985E-2</v>
+        <v>5.9402056062432533E-2</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="111" t="s">
+      <c r="B62" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="112"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="113"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="94"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="76" t="s">
         <v>25</v>
       </c>
       <c r="C63" s="49" t="s">
@@ -2288,7 +2364,7 @@
       <c r="D63" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="76" t="s">
+      <c r="E63" s="73" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2302,7 +2378,7 @@
       <c r="D64" s="17">
         <v>2</v>
       </c>
-      <c r="E64" s="66">
+      <c r="E64" s="65">
         <v>0</v>
       </c>
     </row>
@@ -2316,7 +2392,7 @@
       <c r="D65" s="17">
         <v>3</v>
       </c>
-      <c r="E65" s="66">
+      <c r="E65" s="65">
         <v>3</v>
       </c>
     </row>
@@ -2330,7 +2406,7 @@
       <c r="D66" s="17">
         <v>1</v>
       </c>
-      <c r="E66" s="66">
+      <c r="E66" s="65">
         <v>4</v>
       </c>
     </row>
@@ -2344,7 +2420,7 @@
       <c r="D67" s="17">
         <v>1</v>
       </c>
-      <c r="E67" s="66">
+      <c r="E67" s="65">
         <v>1</v>
       </c>
     </row>
@@ -2358,36 +2434,36 @@
       <c r="D68" s="26">
         <v>3</v>
       </c>
-      <c r="E68" s="77">
+      <c r="E68" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="100"/>
-      <c r="C73" s="101"/>
-      <c r="D73" s="101"/>
-      <c r="E73" s="101"/>
-      <c r="F73" s="101"/>
-      <c r="G73" s="101"/>
-      <c r="H73" s="101"/>
-      <c r="I73" s="102"/>
+      <c r="B73" s="106"/>
+      <c r="C73" s="107"/>
+      <c r="D73" s="107"/>
+      <c r="E73" s="107"/>
+      <c r="F73" s="107"/>
+      <c r="G73" s="107"/>
+      <c r="H73" s="107"/>
+      <c r="I73" s="108"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="59"/>
       <c r="C74" s="47"/>
-      <c r="D74" s="119" t="s">
+      <c r="D74" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="119"/>
-      <c r="F74" s="120" t="s">
+      <c r="E74" s="117"/>
+      <c r="F74" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="G74" s="120"/>
-      <c r="H74" s="121" t="s">
+      <c r="G74" s="118"/>
+      <c r="H74" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="I74" s="122"/>
+      <c r="I74" s="120"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="55" t="s">
@@ -2421,7 +2497,7 @@
       </c>
       <c r="C76" s="52">
         <f>C45</f>
-        <v>5.3561215386152855E-2</v>
+        <v>0.42447311281046818</v>
       </c>
       <c r="D76" s="49">
         <f>C64</f>
@@ -2429,7 +2505,7 @@
       </c>
       <c r="E76" s="49">
         <f>D76*C76</f>
-        <v>0.21424486154461142</v>
+        <v>1.6978924512418727</v>
       </c>
       <c r="F76" s="50">
         <f>D64</f>
@@ -2437,7 +2513,7 @@
       </c>
       <c r="G76" s="50">
         <f>C76*F76</f>
-        <v>0.10712243077230571</v>
+        <v>0.84894622562093636</v>
       </c>
       <c r="H76" s="51">
         <f>E64</f>
@@ -2454,31 +2530,31 @@
       </c>
       <c r="C77" s="52">
         <f>C46</f>
-        <v>0.33797951158060285</v>
+        <v>4.1211412072304665E-2</v>
       </c>
       <c r="D77" s="49">
         <f>C65</f>
         <v>4</v>
       </c>
       <c r="E77" s="49">
-        <f t="shared" ref="E77:E79" si="5">D77*C77</f>
-        <v>1.3519180463224114</v>
+        <f t="shared" ref="E77:E79" si="4">D77*C77</f>
+        <v>0.16484564828921866</v>
       </c>
       <c r="F77" s="50">
         <f>D65</f>
         <v>3</v>
       </c>
       <c r="G77" s="50">
-        <f t="shared" ref="G77:G79" si="6">C77*F77</f>
-        <v>1.0139385347418086</v>
+        <f t="shared" ref="G77:G79" si="5">C77*F77</f>
+        <v>0.123634236216914</v>
       </c>
       <c r="H77" s="51">
         <f>E65</f>
         <v>3</v>
       </c>
       <c r="I77" s="56">
-        <f t="shared" ref="I77:I79" si="7">C77*H77</f>
-        <v>1.0139385347418086</v>
+        <f t="shared" ref="I77:I79" si="6">C77*H77</f>
+        <v>0.123634236216914</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -2487,31 +2563,31 @@
       </c>
       <c r="C78" s="52">
         <f>C47</f>
-        <v>0.12852683210773577</v>
+        <v>0.24334689570905221</v>
       </c>
       <c r="D78" s="49">
         <f>C66</f>
         <v>4</v>
       </c>
       <c r="E78" s="49">
-        <f t="shared" si="5"/>
-        <v>0.51410732843094309</v>
+        <f t="shared" si="4"/>
+        <v>0.97338758283620885</v>
       </c>
       <c r="F78" s="50">
         <f>D66</f>
         <v>1</v>
       </c>
       <c r="G78" s="50">
-        <f t="shared" si="6"/>
-        <v>0.12852683210773577</v>
+        <f t="shared" si="5"/>
+        <v>0.24334689570905221</v>
       </c>
       <c r="H78" s="51">
         <f>E66</f>
         <v>4</v>
       </c>
       <c r="I78" s="56">
-        <f t="shared" si="7"/>
-        <v>0.51410732843094309</v>
+        <f t="shared" si="6"/>
+        <v>0.97338758283620885</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -2520,14 +2596,14 @@
       </c>
       <c r="C79" s="52">
         <f>C48</f>
-        <v>0.36178903539012663</v>
+        <v>0.11292192006909149</v>
       </c>
       <c r="D79" s="49">
         <f>C67</f>
         <v>0</v>
       </c>
       <c r="E79" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F79" s="50">
@@ -2535,49 +2611,49 @@
         <v>1</v>
       </c>
       <c r="G79" s="50">
-        <f t="shared" si="6"/>
-        <v>0.36178903539012663</v>
+        <f t="shared" si="5"/>
+        <v>0.11292192006909149</v>
       </c>
       <c r="H79" s="51">
         <f>E67</f>
         <v>1</v>
       </c>
       <c r="I79" s="56">
-        <f t="shared" si="7"/>
-        <v>0.36178903539012663</v>
+        <f t="shared" si="6"/>
+        <v>0.11292192006909149</v>
       </c>
     </row>
     <row r="80" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C80" s="84">
+      <c r="C80" s="81">
         <f>C49</f>
-        <v>0.1181434055353818</v>
-      </c>
-      <c r="D80" s="85">
+        <v>0.17804665933908348</v>
+      </c>
+      <c r="D80" s="82">
         <f>C68</f>
         <v>4</v>
       </c>
-      <c r="E80" s="85">
-        <f t="shared" ref="E80" si="8">D80*C80</f>
-        <v>0.47257362214152721</v>
-      </c>
-      <c r="F80" s="86">
+      <c r="E80" s="82">
+        <f t="shared" ref="E80" si="7">D80*C80</f>
+        <v>0.71218663735633392</v>
+      </c>
+      <c r="F80" s="83">
         <f>D68</f>
         <v>3</v>
       </c>
-      <c r="G80" s="86">
-        <f t="shared" ref="G80" si="9">C80*F80</f>
-        <v>0.35443021660614538</v>
-      </c>
-      <c r="H80" s="87">
+      <c r="G80" s="83">
+        <f t="shared" ref="G80" si="8">C80*F80</f>
+        <v>0.53413997801725044</v>
+      </c>
+      <c r="H80" s="84">
         <f>E68</f>
         <v>3</v>
       </c>
-      <c r="I80" s="88">
-        <f t="shared" ref="I80" si="10">C80*H80</f>
-        <v>0.35443021660614538</v>
+      <c r="I80" s="85">
+        <f t="shared" ref="I80" si="9">C80*H80</f>
+        <v>0.53413997801725044</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
@@ -2609,62 +2685,56 @@
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="82" t="s">
+      <c r="B86" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C86" s="83" t="s">
+      <c r="C86" s="80" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="80" t="s">
+      <c r="B87" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="66">
+      <c r="C87" s="65">
         <f>SUM(E76:E80)</f>
-        <v>2.552843858439493</v>
+        <v>3.5483123197236344</v>
       </c>
       <c r="D87" s="2"/>
-      <c r="E87" s="94" t="s">
+      <c r="E87" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="F87" s="96" t="str">
+      <c r="F87" s="102" t="str">
         <f>IF(C87&gt;CET88*(C87&gt;C89),B87,IF(C88&gt;C89,B88,B89))</f>
         <v>pentaho</v>
       </c>
-      <c r="G87" s="97"/>
+      <c r="G87" s="103"/>
     </row>
     <row r="88" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="66">
+      <c r="B88" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="65">
         <f>SUM(G76:G80)</f>
-        <v>1.9658070496181219</v>
-      </c>
-      <c r="E88" s="95"/>
-      <c r="F88" s="98"/>
-      <c r="G88" s="99"/>
+        <v>1.8629892556332444</v>
+      </c>
+      <c r="E88" s="101"/>
+      <c r="F88" s="104"/>
+      <c r="G88" s="105"/>
     </row>
     <row r="89" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="81" t="s">
+      <c r="B89" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="77">
+      <c r="C89" s="74">
         <f>SUM(I76:I80)</f>
-        <v>2.2442651151690236</v>
+        <v>1.7440837171394648</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E43:L43"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B43:C43"/>
     <mergeCell ref="E87:E88"/>
     <mergeCell ref="F87:G88"/>
     <mergeCell ref="B73:I73"/>
@@ -2674,6 +2744,12 @@
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="F74:G74"/>
     <mergeCell ref="H74:I74"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E43:L43"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="G55:I56">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -2724,17 +2800,17 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="113"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -2937,13 +3013,13 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="113"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="94"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
@@ -3053,13 +3129,13 @@
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="113"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="94"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="31" t="s">
@@ -3185,10 +3261,10 @@
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="108"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="31" t="s">
@@ -3245,12 +3321,12 @@
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="111" t="s">
+      <c r="B47" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="112"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="113"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="94"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="31" t="s">
@@ -3326,18 +3402,18 @@
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="53"/>
       <c r="C57" s="54"/>
-      <c r="D57" s="127" t="s">
+      <c r="D57" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="127"/>
-      <c r="F57" s="128" t="s">
-        <v>1</v>
-      </c>
-      <c r="G57" s="128"/>
-      <c r="H57" s="124" t="s">
+      <c r="E57" s="125"/>
+      <c r="F57" s="126" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="126"/>
+      <c r="H57" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="I57" s="125"/>
+      <c r="I57" s="123"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="55" t="s">
@@ -3486,21 +3562,21 @@
         <v>18</v>
       </c>
       <c r="C63" s="58"/>
-      <c r="D63" s="123">
+      <c r="D63" s="121">
         <f>SUM(E59:E62)</f>
         <v>2.3548140709955541</v>
       </c>
-      <c r="E63" s="123"/>
-      <c r="F63" s="123">
+      <c r="E63" s="121"/>
+      <c r="F63" s="121">
         <f t="shared" ref="F63" si="8">SUM(F59:F62)</f>
         <v>8</v>
       </c>
-      <c r="G63" s="123"/>
-      <c r="H63" s="123">
+      <c r="G63" s="121"/>
+      <c r="H63" s="121">
         <f t="shared" ref="H63" si="9">SUM(H59:H62)</f>
         <v>7</v>
       </c>
-      <c r="I63" s="126"/>
+      <c r="I63" s="124"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D64" s="2"/>

--- a/chalal.xlsx
+++ b/chalal.xlsx
@@ -167,9 +167,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +215,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="20">
@@ -812,6 +817,81 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -821,6 +901,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -836,69 +928,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -915,30 +944,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1000,6 +1005,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1012,8 +1025,8 @@
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>174172</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>51707</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1064,6 +1077,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9524</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>180974</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Group Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>38101</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1333500</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Group Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1396,12 +1517,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,17 +1547,17 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="76" t="s">
@@ -1465,7 +1586,7 @@
       </c>
       <c r="J3" s="60"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="76" t="s">
         <v>43</v>
       </c>
@@ -1492,7 +1613,7 @@
       </c>
       <c r="J4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="61" t="s">
         <v>29</v>
       </c>
@@ -1507,10 +1628,10 @@
         <v>2</v>
       </c>
       <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
         <v>29</v>
       </c>
@@ -1525,7 +1646,7 @@
         <v>31</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1543,7 +1664,7 @@
         <v>4</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1674,14 +1795,14 @@
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="94"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="119"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="76" t="s">
@@ -1707,22 +1828,22 @@
       <c r="B21" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="128">
-        <v>1</v>
-      </c>
-      <c r="D21" s="127">
+      <c r="C21" s="93">
+        <v>1</v>
+      </c>
+      <c r="D21" s="92" t="b">
         <f>IF(K5=1,7,IF(K5=2,5,IF(K5=3,3,IF(K5=4,1,IF(K5=5,0.3333,IF(K5=6,0.2,IF(K5=7,1/7)))))))</f>
-        <v>7</v>
-      </c>
-      <c r="E21" s="127">
+        <v>0</v>
+      </c>
+      <c r="E21" s="92">
         <f>IF(K6=1,7,IF(K6=2,5,IF(K6=3,3,IF(K6=4,1,IF(K6=5,0.3333,IF(K6=6,0.2,IF(K6=7,1/7)))))))</f>
-        <v>5</v>
-      </c>
-      <c r="F21" s="127">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="92">
         <f>IF(K7=1,7,IF(K7=2,5,IF(K7=3,3,IF(K7=4,1,IF(K7=5,0.3333,IF(K7=6,0.2,IF(K7=7,1/7)))))))</f>
-        <v>3</v>
-      </c>
-      <c r="G21" s="129">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G21" s="94">
         <f>IF(K8=1,7,IF(K8=2,5,IF(K8=3,3,IF(K8=4,1,IF(K8=5,0.3333,IF(K8=6,0.2,IF(K8=7,1/7)))))))</f>
         <v>1</v>
       </c>
@@ -1731,22 +1852,22 @@
       <c r="B22" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="127">
+      <c r="C22" s="92" t="e">
         <f>1/D21</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="D22" s="128">
-        <v>1</v>
-      </c>
-      <c r="E22" s="127">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" s="93">
+        <v>1</v>
+      </c>
+      <c r="E22" s="92">
         <f>IF(K9=1,7,IF(K9=2,5,IF(K9=3,3,IF(K9=4,1,IF(K9=5,0.3333,IF(K9=6,0.2,IF(K9=7,1/7)))))))</f>
         <v>0.33329999999999999</v>
       </c>
-      <c r="F22" s="127">
+      <c r="F22" s="92">
         <f>IF(K10=1,7,IF(K10=2,5,IF(K10=3,3,IF(K10=4,1,IF(K10=5,0.3333,IF(K10=6,0.2,IF(K10=7,1/7)))))))</f>
         <v>0.2</v>
       </c>
-      <c r="G22" s="129">
+      <c r="G22" s="94">
         <f>IF(K11=1,7,IF(K11=2,5,IF(K11=3,3,IF(K11=4,1,IF(K11=5,0.3333,IF(K11=6,0.2,IF(K11=7,1/7)))))))</f>
         <v>0.14285714285714285</v>
       </c>
@@ -1755,22 +1876,22 @@
       <c r="B23" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="127">
+      <c r="C23" s="92">
         <f>1/E21</f>
-        <v>0.2</v>
-      </c>
-      <c r="D23" s="127">
+        <v>5</v>
+      </c>
+      <c r="D23" s="92">
         <f>1/E22</f>
         <v>3.0003000300030003</v>
       </c>
-      <c r="E23" s="128">
-        <v>1</v>
-      </c>
-      <c r="F23" s="127">
+      <c r="E23" s="93">
+        <v>1</v>
+      </c>
+      <c r="F23" s="92">
         <f>IF(K12=1,7,IF(K12=2,5,IF(K12=3,3,IF(K12=4,1,IF(K12=5,0.3333,IF(K12=6,0.2,IF(K12=7,1/7)))))))</f>
         <v>7</v>
       </c>
-      <c r="G23" s="129">
+      <c r="G23" s="94">
         <f>IF(K13=1,7,IF(K13=2,5,IF(K13=3,3,IF(K13=4,1,IF(K13=5,0.3333,IF(K13=6,0.2,IF(K13=7,1/7)))))))</f>
         <v>7</v>
       </c>
@@ -1779,22 +1900,22 @@
       <c r="B24" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="130">
+      <c r="C24" s="95">
         <f>1/F21</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D24" s="130">
+        <v>7</v>
+      </c>
+      <c r="D24" s="95">
         <f>1/F22</f>
         <v>5</v>
       </c>
-      <c r="E24" s="130">
+      <c r="E24" s="95">
         <f>1/F23</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="F24" s="128">
-        <v>1</v>
-      </c>
-      <c r="G24" s="131">
+      <c r="F24" s="93">
+        <v>1</v>
+      </c>
+      <c r="G24" s="96">
         <f>IF(K14=1,7,IF(K14=2,5,IF(K14=3,3,IF(K14=4,1,IF(K14=5,0.3333,IF(K14=6,0.2,IF(K14=7,1/7)))))))</f>
         <v>7</v>
       </c>
@@ -1803,23 +1924,23 @@
       <c r="B25" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="130">
+      <c r="C25" s="95">
         <f>1/G21</f>
         <v>1</v>
       </c>
-      <c r="D25" s="130">
+      <c r="D25" s="95">
         <f>1/G22</f>
         <v>7</v>
       </c>
-      <c r="E25" s="130">
+      <c r="E25" s="95">
         <f>1/G23</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="F25" s="130">
+      <c r="F25" s="95">
         <f>1/G24</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="G25" s="132">
+      <c r="G25" s="97">
         <v>1</v>
       </c>
     </row>
@@ -1827,37 +1948,37 @@
       <c r="B26" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="133">
+      <c r="C26" s="98" t="e">
         <f>SUM(C21:C25)</f>
-        <v>2.676190476190476</v>
-      </c>
-      <c r="D26" s="133">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="98">
         <f>SUM(D21:D25)</f>
-        <v>23.000300030003</v>
-      </c>
-      <c r="E26" s="133">
+        <v>16.000300030003</v>
+      </c>
+      <c r="E26" s="98">
         <f>SUM(E21:E25)</f>
-        <v>6.6190142857142868</v>
-      </c>
-      <c r="F26" s="133">
+        <v>1.8190142857142857</v>
+      </c>
+      <c r="F26" s="98">
         <f>SUM(F21:F25)</f>
-        <v>11.342857142857142</v>
-      </c>
-      <c r="G26" s="134">
+        <v>8.485714285714284</v>
+      </c>
+      <c r="G26" s="99">
         <f>SUM(G21:G25)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="94"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="119"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="76" t="s">
@@ -1883,21 +2004,21 @@
       <c r="B33" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="17" t="e">
         <f t="shared" ref="C33:G37" si="0">C21/C$26</f>
-        <v>0.37366548042704628</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D33" s="17">
         <f t="shared" si="0"/>
-        <v>0.30434385598747715</v>
+        <v>0</v>
       </c>
       <c r="E33" s="17">
         <f t="shared" si="0"/>
-        <v>0.75539948762331888</v>
+        <v>0.10994965876338049</v>
       </c>
       <c r="F33" s="17">
         <f t="shared" si="0"/>
-        <v>0.26448362720403024</v>
+        <v>1.6835016835016838E-2</v>
       </c>
       <c r="G33" s="65">
         <f t="shared" si="0"/>
@@ -1908,21 +2029,21 @@
       <c r="B34" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="17" t="e">
         <f t="shared" si="0"/>
-        <v>5.3380782918149468E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" si="0"/>
-        <v>4.347769371249674E-2</v>
+        <v>6.2498828029777423E-2</v>
       </c>
       <c r="E34" s="17">
         <f t="shared" si="0"/>
-        <v>5.0354929844970434E-2</v>
+        <v>0.18323110632917355</v>
       </c>
       <c r="F34" s="17">
         <f t="shared" si="0"/>
-        <v>1.7632241813602019E-2</v>
+        <v>2.3569023569023576E-2</v>
       </c>
       <c r="G34" s="65">
         <f t="shared" si="0"/>
@@ -1933,21 +2054,21 @@
       <c r="B35" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="17" t="e">
         <f t="shared" si="0"/>
-        <v>7.4733096085409262E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D35" s="17">
         <f t="shared" si="0"/>
-        <v>0.13044612575006523</v>
+        <v>0.18751523561289354</v>
       </c>
       <c r="E35" s="17">
         <f t="shared" si="0"/>
-        <v>0.15107989752466378</v>
+        <v>0.54974829381690238</v>
       </c>
       <c r="F35" s="17">
         <f t="shared" si="0"/>
-        <v>0.61712846347607064</v>
+        <v>0.82491582491582505</v>
       </c>
       <c r="G35" s="65">
         <f t="shared" si="0"/>
@@ -1958,21 +2079,21 @@
       <c r="B36" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="17" t="e">
         <f t="shared" si="0"/>
-        <v>0.12455516014234876</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D36" s="17">
         <f t="shared" si="0"/>
-        <v>0.2173884685624837</v>
+        <v>0.3124941401488871</v>
       </c>
       <c r="E36" s="17">
         <f t="shared" si="0"/>
-        <v>2.1582842503523395E-2</v>
+        <v>7.8535470545271768E-2</v>
       </c>
       <c r="F36" s="17">
         <f t="shared" si="0"/>
-        <v>8.8161209068010088E-2</v>
+        <v>0.11784511784511786</v>
       </c>
       <c r="G36" s="65">
         <f t="shared" si="0"/>
@@ -1983,21 +2104,21 @@
       <c r="B37" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="17" t="e">
         <f t="shared" si="0"/>
-        <v>0.37366548042704628</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D37" s="17">
         <f t="shared" si="0"/>
-        <v>0.30434385598747715</v>
+        <v>0.43749179620844192</v>
       </c>
       <c r="E37" s="17">
         <f t="shared" si="0"/>
-        <v>2.1582842503523395E-2</v>
+        <v>7.8535470545271768E-2</v>
       </c>
       <c r="F37" s="17">
         <f t="shared" si="0"/>
-        <v>1.2594458438287154E-2</v>
+        <v>1.6835016835016838E-2</v>
       </c>
       <c r="G37" s="65">
         <f t="shared" si="0"/>
@@ -2008,9 +2129,9 @@
       <c r="B38" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="25" t="e">
         <f>SUM(C33:C37)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D38" s="25">
         <f>SUM(D33:D37)</f>
@@ -2018,7 +2139,7 @@
       </c>
       <c r="E38" s="25">
         <f>SUM(E33:E37)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="F38" s="25">
         <f>SUM(F33:F37)</f>
@@ -2031,18 +2152,18 @@
     </row>
     <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="98" t="s">
+      <c r="B43" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="99"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="97"/>
+      <c r="C43" s="128"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="125"/>
+      <c r="L43" s="126"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="76" t="s">
@@ -2086,238 +2207,238 @@
       <c r="B45" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="70">
+      <c r="C45" s="70" t="e">
         <f t="shared" ref="C45:C50" si="3">SUM(C33:F33)/4</f>
-        <v>0.42447311281046818</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E45" s="61" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Communauté </v>
       </c>
-      <c r="F45" s="17">
-        <f t="shared" si="1"/>
-        <v>0.37366548042704628</v>
+      <c r="F45" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="G45" s="17">
         <f t="shared" si="1"/>
-        <v>0.30434385598747715</v>
+        <v>0</v>
       </c>
       <c r="H45" s="17">
         <f t="shared" si="1"/>
-        <v>0.75539948762331888</v>
+        <v>0.10994965876338049</v>
       </c>
       <c r="I45" s="17">
         <f t="shared" si="1"/>
-        <v>0.26448362720403024</v>
+        <v>1.6835016835016838E-2</v>
       </c>
       <c r="J45" s="17">
         <f t="shared" si="2"/>
         <v>6.1946902654867256E-2</v>
       </c>
-      <c r="K45" s="89">
+      <c r="K45" s="89" t="e">
         <f>SUM(F45:J45)</f>
-        <v>1.7598393538967401</v>
-      </c>
-      <c r="L45" s="86">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L45" s="86" t="e">
         <f>K45/C45</f>
-        <v>4.1459383428192007</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="70">
+      <c r="C46" s="70" t="e">
         <f t="shared" si="3"/>
-        <v>4.1211412072304665E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E46" s="61" t="str">
         <f t="shared" si="1"/>
         <v>Documentation</v>
       </c>
-      <c r="F46" s="17">
-        <f t="shared" si="1"/>
-        <v>5.3380782918149468E-2</v>
+      <c r="F46" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="G46" s="17">
         <f t="shared" si="1"/>
-        <v>4.347769371249674E-2</v>
+        <v>6.2498828029777423E-2</v>
       </c>
       <c r="H46" s="17">
         <f t="shared" si="1"/>
-        <v>5.0354929844970434E-2</v>
+        <v>0.18323110632917355</v>
       </c>
       <c r="I46" s="17">
         <f t="shared" si="1"/>
-        <v>1.7632241813602019E-2</v>
+        <v>2.3569023569023576E-2</v>
       </c>
       <c r="J46" s="17">
         <f t="shared" si="2"/>
         <v>8.8495575221238937E-3</v>
       </c>
-      <c r="K46" s="89">
+      <c r="K46" s="89" t="e">
         <f>SUM(F46:J46)</f>
-        <v>0.17369520581134257</v>
-      </c>
-      <c r="L46" s="86">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L46" s="86" t="e">
         <f>K46/C46</f>
-        <v>4.2147356054336971</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="70">
+      <c r="C47" s="70" t="e">
         <f t="shared" si="3"/>
-        <v>0.24334689570905221</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E47" s="61" t="str">
         <f t="shared" si="1"/>
         <v>Niveau d'accessibilité</v>
       </c>
-      <c r="F47" s="17">
-        <f t="shared" si="1"/>
-        <v>7.4733096085409262E-2</v>
+      <c r="F47" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="G47" s="17">
         <f t="shared" si="1"/>
-        <v>0.13044612575006523</v>
+        <v>0.18751523561289354</v>
       </c>
       <c r="H47" s="17">
         <f t="shared" si="1"/>
-        <v>0.15107989752466378</v>
+        <v>0.54974829381690238</v>
       </c>
       <c r="I47" s="17">
         <f t="shared" si="1"/>
-        <v>0.61712846347607064</v>
+        <v>0.82491582491582505</v>
       </c>
       <c r="J47" s="17">
         <f t="shared" si="2"/>
         <v>0.4336283185840708</v>
       </c>
-      <c r="K47" s="89">
+      <c r="K47" s="89" t="e">
         <f>SUM(F47:J47)</f>
-        <v>1.4070159014202797</v>
-      </c>
-      <c r="L47" s="86">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L47" s="86" t="e">
         <f>K47/C47</f>
-        <v>5.7819348684132006</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="70">
+      <c r="C48" s="70" t="e">
         <f t="shared" si="3"/>
-        <v>0.11292192006909149</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E48" s="61" t="str">
         <f t="shared" si="1"/>
         <v>Sécurité</v>
       </c>
-      <c r="F48" s="17">
-        <f t="shared" si="1"/>
-        <v>0.12455516014234876</v>
+      <c r="F48" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="G48" s="17">
         <f t="shared" si="1"/>
-        <v>0.2173884685624837</v>
+        <v>0.3124941401488871</v>
       </c>
       <c r="H48" s="17">
         <f t="shared" si="1"/>
-        <v>2.1582842503523395E-2</v>
+        <v>7.8535470545271768E-2</v>
       </c>
       <c r="I48" s="17">
         <f t="shared" si="1"/>
-        <v>8.8161209068010088E-2</v>
+        <v>0.11784511784511786</v>
       </c>
       <c r="J48" s="17">
         <f t="shared" si="2"/>
         <v>0.4336283185840708</v>
       </c>
-      <c r="K48" s="89">
+      <c r="K48" s="89" t="e">
         <f>SUM(F48:J48)</f>
-        <v>0.88531599886043677</v>
-      </c>
-      <c r="L48" s="86">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L48" s="86" t="e">
         <f>K48/C48</f>
-        <v>7.8400721340794997</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="70">
+      <c r="C49" s="70" t="e">
         <f t="shared" si="3"/>
-        <v>0.17804665933908348</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E49" s="63" t="str">
         <f t="shared" si="1"/>
         <v>Taux d’activité</v>
       </c>
-      <c r="F49" s="26">
-        <f t="shared" si="1"/>
-        <v>0.37366548042704628</v>
+      <c r="F49" s="26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="G49" s="26">
         <f t="shared" si="1"/>
-        <v>0.30434385598747715</v>
+        <v>0.43749179620844192</v>
       </c>
       <c r="H49" s="26">
         <f t="shared" si="1"/>
-        <v>2.1582842503523395E-2</v>
+        <v>7.8535470545271768E-2</v>
       </c>
       <c r="I49" s="26">
         <f t="shared" si="1"/>
-        <v>1.2594458438287154E-2</v>
+        <v>1.6835016835016838E-2</v>
       </c>
       <c r="J49" s="26">
         <f t="shared" si="2"/>
         <v>6.1946902654867256E-2</v>
       </c>
-      <c r="K49" s="90">
+      <c r="K49" s="90" t="e">
         <f>SUM(F49:J49)</f>
-        <v>0.77413354001120116</v>
-      </c>
-      <c r="L49" s="87">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L49" s="87" t="e">
         <f>K49/C49</f>
-        <v>4.3479251050528926</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="71">
+      <c r="C50" s="71" t="e">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="92" t="s">
+      <c r="B54" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="94"/>
+      <c r="C54" s="119"/>
     </row>
     <row r="55" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="56">
+      <c r="C55" s="56" t="e">
         <f>SUM(L45:L49)/5</f>
-        <v>5.2661212111596978</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E55" s="109" t="s">
         <v>41</v>
       </c>
       <c r="F55" s="110"/>
-      <c r="G55" s="113" t="str">
+      <c r="G55" s="113" t="e">
         <f>IF(AND(C57&gt;0,C57&lt;0.1),"Valide","Non Valide")</f>
-        <v>Valide</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H55" s="113"/>
       <c r="I55" s="114"/>
@@ -2326,9 +2447,9 @@
       <c r="B56" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="56">
+      <c r="C56" s="56" t="e">
         <f>(C55-5)/4</f>
-        <v>6.6530302789924445E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E56" s="111"/>
       <c r="F56" s="112"/>
@@ -2340,19 +2461,19 @@
       <c r="B57" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="C57" s="85">
+      <c r="C57" s="85" t="e">
         <f>C56/1.12</f>
-        <v>5.9402056062432533E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="92" t="s">
+      <c r="B62" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="94"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="119"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="76" t="s">
@@ -2452,18 +2573,18 @@
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="59"/>
       <c r="C74" s="47"/>
-      <c r="D74" s="117" t="s">
+      <c r="D74" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="117"/>
-      <c r="F74" s="118" t="s">
+      <c r="E74" s="120"/>
+      <c r="F74" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="G74" s="118"/>
-      <c r="H74" s="119" t="s">
+      <c r="G74" s="121"/>
+      <c r="H74" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="I74" s="120"/>
+      <c r="I74" s="123"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="55" t="s">
@@ -2495,165 +2616,165 @@
       <c r="B76" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="52">
+      <c r="C76" s="52" t="e">
         <f>C45</f>
-        <v>0.42447311281046818</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D76" s="49">
         <f>C64</f>
         <v>4</v>
       </c>
-      <c r="E76" s="49">
+      <c r="E76" s="49" t="e">
         <f>D76*C76</f>
-        <v>1.6978924512418727</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F76" s="50">
         <f>D64</f>
         <v>2</v>
       </c>
-      <c r="G76" s="50">
+      <c r="G76" s="50" t="e">
         <f>C76*F76</f>
-        <v>0.84894622562093636</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H76" s="51">
         <f>E64</f>
         <v>0</v>
       </c>
-      <c r="I76" s="56">
+      <c r="I76" s="56" t="e">
         <f>C76*H76</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="52">
+      <c r="C77" s="52" t="e">
         <f>C46</f>
-        <v>4.1211412072304665E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D77" s="49">
         <f>C65</f>
         <v>4</v>
       </c>
-      <c r="E77" s="49">
+      <c r="E77" s="49" t="e">
         <f t="shared" ref="E77:E79" si="4">D77*C77</f>
-        <v>0.16484564828921866</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F77" s="50">
         <f>D65</f>
         <v>3</v>
       </c>
-      <c r="G77" s="50">
+      <c r="G77" s="50" t="e">
         <f t="shared" ref="G77:G79" si="5">C77*F77</f>
-        <v>0.123634236216914</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H77" s="51">
         <f>E65</f>
         <v>3</v>
       </c>
-      <c r="I77" s="56">
+      <c r="I77" s="56" t="e">
         <f t="shared" ref="I77:I79" si="6">C77*H77</f>
-        <v>0.123634236216914</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C78" s="52">
+      <c r="C78" s="52" t="e">
         <f>C47</f>
-        <v>0.24334689570905221</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D78" s="49">
         <f>C66</f>
         <v>4</v>
       </c>
-      <c r="E78" s="49">
+      <c r="E78" s="49" t="e">
         <f t="shared" si="4"/>
-        <v>0.97338758283620885</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F78" s="50">
         <f>D66</f>
         <v>1</v>
       </c>
-      <c r="G78" s="50">
+      <c r="G78" s="50" t="e">
         <f t="shared" si="5"/>
-        <v>0.24334689570905221</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H78" s="51">
         <f>E66</f>
         <v>4</v>
       </c>
-      <c r="I78" s="56">
+      <c r="I78" s="56" t="e">
         <f t="shared" si="6"/>
-        <v>0.97338758283620885</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="52">
+      <c r="C79" s="52" t="e">
         <f>C48</f>
-        <v>0.11292192006909149</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D79" s="49">
         <f>C67</f>
         <v>0</v>
       </c>
-      <c r="E79" s="49">
+      <c r="E79" s="49" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F79" s="50">
         <f>D67</f>
         <v>1</v>
       </c>
-      <c r="G79" s="50">
+      <c r="G79" s="50" t="e">
         <f t="shared" si="5"/>
-        <v>0.11292192006909149</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H79" s="51">
         <f>E67</f>
         <v>1</v>
       </c>
-      <c r="I79" s="56">
+      <c r="I79" s="56" t="e">
         <f t="shared" si="6"/>
-        <v>0.11292192006909149</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="80" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C80" s="81">
+      <c r="C80" s="81" t="e">
         <f>C49</f>
-        <v>0.17804665933908348</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D80" s="82">
         <f>C68</f>
         <v>4</v>
       </c>
-      <c r="E80" s="82">
+      <c r="E80" s="82" t="e">
         <f t="shared" ref="E80" si="7">D80*C80</f>
-        <v>0.71218663735633392</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F80" s="83">
         <f>D68</f>
         <v>3</v>
       </c>
-      <c r="G80" s="83">
+      <c r="G80" s="83" t="e">
         <f t="shared" ref="G80" si="8">C80*F80</f>
-        <v>0.53413997801725044</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H80" s="84">
         <f>E68</f>
         <v>3</v>
       </c>
-      <c r="I80" s="85">
+      <c r="I80" s="85" t="e">
         <f t="shared" ref="I80" si="9">C80*H80</f>
-        <v>0.53413997801725044</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
@@ -2698,17 +2819,17 @@
       <c r="B87" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="65">
+      <c r="C87" s="65" t="e">
         <f>SUM(E76:E80)</f>
-        <v>3.5483123197236344</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="F87" s="102" t="str">
+      <c r="F87" s="102" t="e">
         <f>IF(C87&gt;CET88*(C87&gt;C89),B87,IF(C88&gt;C89,B88,B89))</f>
-        <v>pentaho</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G87" s="103"/>
     </row>
@@ -2716,9 +2837,9 @@
       <c r="B88" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="65">
+      <c r="C88" s="65" t="e">
         <f>SUM(G76:G80)</f>
-        <v>1.8629892556332444</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E88" s="101"/>
       <c r="F88" s="104"/>
@@ -2728,13 +2849,19 @@
       <c r="B89" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="74">
+      <c r="C89" s="74" t="e">
         <f>SUM(I76:I80)</f>
-        <v>1.7440837171394648</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E43:L43"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="E87:E88"/>
     <mergeCell ref="F87:G88"/>
     <mergeCell ref="B73:I73"/>
@@ -2744,12 +2871,6 @@
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="F74:G74"/>
     <mergeCell ref="H74:I74"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E43:L43"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="G55:I56">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -2768,6 +2889,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Group Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId5" name="Group Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>1333500</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -2800,17 +2972,17 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -3013,13 +3185,13 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="119"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
@@ -3129,13 +3301,13 @@
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="94"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="119"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="31" t="s">
@@ -3321,12 +3493,12 @@
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="94"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="119"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="31" t="s">
@@ -3402,18 +3574,18 @@
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="53"/>
       <c r="C57" s="54"/>
-      <c r="D57" s="125" t="s">
+      <c r="D57" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="125"/>
-      <c r="F57" s="126" t="s">
-        <v>1</v>
-      </c>
-      <c r="G57" s="126"/>
-      <c r="H57" s="122" t="s">
+      <c r="E57" s="133"/>
+      <c r="F57" s="134" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="134"/>
+      <c r="H57" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="I57" s="123"/>
+      <c r="I57" s="131"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="55" t="s">
@@ -3562,21 +3734,21 @@
         <v>18</v>
       </c>
       <c r="C63" s="58"/>
-      <c r="D63" s="121">
+      <c r="D63" s="129">
         <f>SUM(E59:E62)</f>
         <v>2.3548140709955541</v>
       </c>
-      <c r="E63" s="121"/>
-      <c r="F63" s="121">
+      <c r="E63" s="129"/>
+      <c r="F63" s="129">
         <f t="shared" ref="F63" si="8">SUM(F59:F62)</f>
         <v>8</v>
       </c>
-      <c r="G63" s="121"/>
-      <c r="H63" s="121">
+      <c r="G63" s="129"/>
+      <c r="H63" s="129">
         <f t="shared" ref="H63" si="9">SUM(H59:H62)</f>
         <v>7</v>
       </c>
-      <c r="I63" s="124"/>
+      <c r="I63" s="132"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D64" s="2"/>
